--- a/src/excel/Project Enquiry Register - 18-19 Template.xlsx
+++ b/src/excel/Project Enquiry Register - 18-19 Template.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" r:id="rId4"/>
-    <sheet sheetId="3" name="Client Details" r:id="rId5"/>
-    <sheet sheetId="4" name="Sheet2" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Client Details" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase">Sheet1!$A$4:$AA$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!A1:AA3</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="142">
   <si>
     <t xml:space="preserve"> ENQUIRY REGISTER - 2018 - 2019 FOR PROJECTS</t>
   </si>
@@ -273,55 +273,232 @@
   </si>
   <si>
     <t>hjkhh</t>
+  </si>
+  <si>
+    <t>dhanasekar</t>
+  </si>
+  <si>
+    <t>dhana</t>
+  </si>
+  <si>
+    <t>hyjuyuj</t>
+  </si>
+  <si>
+    <t>2018-05-20</t>
+  </si>
+  <si>
+    <t>nickel</t>
+  </si>
+  <si>
+    <t>2018-05-06</t>
+  </si>
+  <si>
+    <t>jhkjkh</t>
+  </si>
+  <si>
+    <t>9ooioiu</t>
+  </si>
+  <si>
+    <t>khhk</t>
+  </si>
+  <si>
+    <t>lkjkl</t>
+  </si>
+  <si>
+    <t>2018-05-05</t>
+  </si>
+  <si>
+    <t>contact person name unknown</t>
+  </si>
+  <si>
+    <t>2018-05-12</t>
+  </si>
+  <si>
+    <t>chhecking for entry</t>
+  </si>
+  <si>
+    <t>2018-05-27</t>
+  </si>
+  <si>
+    <t>ford</t>
+  </si>
+  <si>
+    <t>khkkh</t>
+  </si>
+  <si>
+    <t>jkj</t>
+  </si>
+  <si>
+    <t>jhgghfhj</t>
+  </si>
+  <si>
+    <t>hjlkj</t>
+  </si>
+  <si>
+    <t>2018-05-11</t>
+  </si>
+  <si>
+    <t>okay okay</t>
+  </si>
+  <si>
+    <t>2018-05-17</t>
+  </si>
+  <si>
+    <t>yuy</t>
+  </si>
+  <si>
+    <t>yj</t>
+  </si>
+  <si>
+    <t>hjhggh</t>
+  </si>
+  <si>
+    <t>hjty</t>
+  </si>
+  <si>
+    <t>hgfgfhg</t>
+  </si>
+  <si>
+    <t>hgfg</t>
+  </si>
+  <si>
+    <t>ljklkjl</t>
+  </si>
+  <si>
+    <t>ghjgh</t>
+  </si>
+  <si>
+    <t>sent</t>
+  </si>
+  <si>
+    <t>never give up</t>
+  </si>
+  <si>
+    <t>try until you reach the success</t>
+  </si>
+  <si>
+    <t>hhhhhhhhhhhhhhhhhh</t>
+  </si>
+  <si>
+    <t>dddddd</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>qqqqqqqqqqqq</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>ooooooooo</t>
+  </si>
+  <si>
+    <t>oooooooooo</t>
+  </si>
+  <si>
+    <t>fffffffff</t>
+  </si>
+  <si>
+    <t>ffffffffff</t>
+  </si>
+  <si>
+    <t>455555</t>
+  </si>
+  <si>
+    <t>5555</t>
+  </si>
+  <si>
+    <t>5555555</t>
+  </si>
+  <si>
+    <t>5555555555</t>
+  </si>
+  <si>
+    <t>dhanawse888888</t>
+  </si>
+  <si>
+    <t>8888888888</t>
+  </si>
+  <si>
+    <t>pppppppp</t>
+  </si>
+  <si>
+    <t>999999999999</t>
+  </si>
+  <si>
+    <t>wine</t>
+  </si>
+  <si>
+    <t>vijay</t>
+  </si>
+  <si>
+    <t>2018-05-19</t>
+  </si>
+  <si>
+    <t>regarding cctve instatlllation</t>
+  </si>
+  <si>
+    <t>regarding cctv installation</t>
+  </si>
+  <si>
+    <t>king</t>
+  </si>
+  <si>
+    <t>regardin power supply</t>
+  </si>
+  <si>
+    <t>jhhjj</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * -#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ [$₹-4009] * #,##0.00_ ;_ [$₹-4009] * -#,##0.00_ ;_ [$₹-4009] * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* -#,##0.00 ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="6">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <family val="1"/>
       <sz val="10"/>
       <name val="Book Antiqua"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
+      <name val="Book Antiqua"/>
       <family val="1"/>
-      <sz val="10"/>
-      <name val="Book Antiqua"/>
     </font>
     <font>
       <b/>
-      <family val="1"/>
       <sz val="10"/>
       <name val="Book Antiqua"/>
+      <family val="1"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Book Antiqua"/>
       <family val="1"/>
-      <sz val="11"/>
-      <name val="Book Antiqua"/>
     </font>
   </fonts>
   <fills count="3">
@@ -376,16 +553,16 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.1499984740745262"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.1499984740745262"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.1499984740745262"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.1499984740745262"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -402,27 +579,27 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.1499984740745262"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.1499984740745262"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.1499984740745262"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.1499984740745262"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.1499984740745262"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.1499984740745262"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -441,16 +618,16 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.249946592608417"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.249946592608417"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.249946592608417"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.249946592608417"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
@@ -458,7 +635,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -469,7 +646,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -481,13 +658,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -499,13 +673,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -517,7 +688,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -529,7 +700,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -547,10 +718,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -562,7 +733,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -574,10 +745,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -857,15 +1037,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB36"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" style="2" customWidth="1"/>
@@ -892,936 +1072,937 @@
     <col min="25" max="26" width="12.140625" style="1" customWidth="1"/>
     <col min="27" max="27" width="23.7109375" style="3" customWidth="1"/>
     <col min="28" max="28" width="11" style="6" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="6" customWidth="1"/>
+    <col min="29" max="29" width="9.140625" style="6" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:28" s="9" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="11"/>
-    </row>
-    <row r="2" ht="30" customHeight="1" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="10"/>
+    </row>
+    <row r="2" spans="1:28" s="11" customFormat="1" ht="30" customHeight="1">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14" t="s">
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14" t="s">
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="15"/>
-    </row>
-    <row r="3" ht="60" customHeight="1" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="13" t="s">
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="13"/>
+    </row>
+    <row r="3" spans="1:28" s="11" customFormat="1" ht="60" customHeight="1">
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="O3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="R3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="S3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="T3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="U3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="V3" s="13" t="s">
+      <c r="V3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="W3" s="13" t="s">
+      <c r="W3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="X3" s="16" t="s">
+      <c r="X3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Y3" s="13" t="s">
+      <c r="Y3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="Z3" s="13" t="s">
+      <c r="Z3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AA3" s="13" t="s">
+      <c r="AA3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AB3" s="15"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="25"/>
-    </row>
-    <row r="5" ht="16.5" customHeight="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="AB3" s="13"/>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="23"/>
+    </row>
+    <row r="5" spans="1:28" ht="16.5" customHeight="1">
+      <c r="A5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="19" t="s">
+      <c r="J5" s="15"/>
+      <c r="K5" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="17" t="s">
+      <c r="N5" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="24">
+      <c r="O5" s="22">
         <v>111111</v>
       </c>
-      <c r="P5" s="24">
+      <c r="P5" s="22">
         <f>O5</f>
         <v>111111</v>
       </c>
-      <c r="Q5" s="17" t="s">
+      <c r="Q5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="R5" s="26"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17" t="s">
+      <c r="R5" s="24"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AA5" s="17" t="s">
+      <c r="AA5" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AB5" s="25"/>
-    </row>
-    <row r="6" ht="16.5" customHeight="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="AB5" s="23"/>
+    </row>
+    <row r="6" spans="1:28" ht="16.5" customHeight="1">
+      <c r="A6" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="17" t="s">
+      <c r="N6" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="O6" s="20">
+      <c r="O6" s="18">
         <v>222222</v>
       </c>
-      <c r="P6" s="24">
+      <c r="P6" s="22">
         <f t="shared" ref="P6:P7" si="0">O6</f>
         <v>222222</v>
       </c>
-      <c r="Q6" s="17" t="s">
+      <c r="Q6" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="R6" s="26"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17" t="s">
+      <c r="R6" s="24"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AA6" s="17" t="s">
+      <c r="AA6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AB6" s="25"/>
-    </row>
-    <row r="7" ht="16.5" customHeight="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="AB6" s="23"/>
+    </row>
+    <row r="7" spans="1:28" ht="16.5" customHeight="1">
+      <c r="A7" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="N7" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="20">
+      <c r="O7" s="18">
         <v>333333</v>
       </c>
-      <c r="P7" s="24">
+      <c r="P7" s="22">
         <f t="shared" si="0"/>
         <v>333333</v>
       </c>
-      <c r="Q7" s="17" t="s">
+      <c r="Q7" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="R7" s="26"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17" t="s">
+      <c r="R7" s="24"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AA7" s="17" t="s">
+      <c r="AA7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AB7" s="25"/>
-    </row>
-    <row r="8" ht="16.5" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="28"/>
-    </row>
-    <row r="9" ht="30" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="28"/>
-    </row>
-    <row r="10" ht="30" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="28"/>
-    </row>
-    <row r="11" ht="30" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="28"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="28"/>
-    </row>
-    <row r="13" ht="30" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="28"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="28"/>
-    </row>
-    <row r="15" ht="30" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="28"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="17"/>
-      <c r="AB16" s="28"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="28"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="17"/>
-      <c r="AA18" s="17"/>
-      <c r="AB18" s="28"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="17"/>
-      <c r="AB19" s="28"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="28"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="17"/>
-      <c r="AA21" s="17"/>
-      <c r="AB21" s="28"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="17"/>
-      <c r="AA22" s="17"/>
-      <c r="AB22" s="28"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="17"/>
-      <c r="AB23" s="28"/>
-    </row>
-    <row r="24" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="17"/>
-      <c r="AA24" s="19"/>
-      <c r="AB24" s="28"/>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="38"/>
-      <c r="W25" s="32"/>
-      <c r="X25" s="39"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="32"/>
-      <c r="AA25" s="34"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="AB7" s="23"/>
+    </row>
+    <row r="8" spans="1:28" s="25" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="26"/>
+    </row>
+    <row r="9" spans="1:28" s="25" customFormat="1" ht="30" customHeight="1">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="26"/>
+    </row>
+    <row r="10" spans="1:28" s="25" customFormat="1" ht="30" customHeight="1">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="26"/>
+    </row>
+    <row r="11" spans="1:28" s="25" customFormat="1" ht="30" customHeight="1">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="26"/>
+    </row>
+    <row r="12" spans="1:28" s="25" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="26"/>
+    </row>
+    <row r="13" spans="1:28" s="25" customFormat="1" ht="30" customHeight="1">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="26"/>
+    </row>
+    <row r="14" spans="1:28" s="25" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="26"/>
+    </row>
+    <row r="15" spans="1:28" s="25" customFormat="1" ht="30" customHeight="1">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="26"/>
+    </row>
+    <row r="16" spans="1:28" s="25" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="26"/>
+    </row>
+    <row r="17" spans="1:28" s="25" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="26"/>
+    </row>
+    <row r="18" spans="1:28" s="25" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="26"/>
+    </row>
+    <row r="19" spans="1:28" s="25" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="26"/>
+    </row>
+    <row r="20" spans="1:28" s="25" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="26"/>
+    </row>
+    <row r="21" spans="1:28" s="25" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="26"/>
+    </row>
+    <row r="22" spans="1:28" s="25" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="15"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="26"/>
+    </row>
+    <row r="23" spans="1:28" s="25" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="26"/>
+    </row>
+    <row r="24" spans="1:28" s="25" customFormat="1">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="26"/>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="A25" s="30"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="32"/>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26" s="1" t="s">
         <v>64</v>
       </c>
@@ -1829,7 +2010,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28">
       <c r="A27" s="1" t="s">
         <v>64</v>
       </c>
@@ -1837,7 +2018,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28">
       <c r="A28" s="1" t="s">
         <v>64</v>
       </c>
@@ -1845,7 +2026,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28">
       <c r="A29" s="1" t="s">
         <v>64</v>
       </c>
@@ -1853,7 +2034,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28">
       <c r="A30" s="1" t="s">
         <v>64</v>
       </c>
@@ -1861,7 +2042,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28">
       <c r="A31" s="1" t="s">
         <v>64</v>
       </c>
@@ -1869,7 +2050,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
@@ -1877,7 +2058,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -1885,7 +2066,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
         <v>64</v>
       </c>
@@ -1893,7 +2074,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
         <v>64</v>
       </c>
@@ -1901,7 +2082,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
         <v>64</v>
       </c>
@@ -1921,26 +2102,26 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
   </mergeCells>
-  <pageMargins left="0.2" right="0.1968503937007874" top="0.3937007874015748" bottom="0.2755905511811024" header="0.1968503937007874" footer="0.1968503937007874"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="1200" scale="65" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageMargins left="0.2" right="0.19685039370078741" top="0.39370078740157483" bottom="0.27559055118110237" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" scale="65" orientation="landscape" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="1200"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -1948,17 +2129,17 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -1966,7 +2147,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -1974,7 +2155,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -1982,7 +2163,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -1990,7 +2171,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -2003,574 +2184,899 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA15"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AA48"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="8" max="8" width="28" customWidth="1"/>
     <col min="15" max="15" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:27">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14" t="s">
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14" t="s">
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-    </row>
-    <row r="3" ht="60" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="13" t="s">
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+    </row>
+    <row r="3" spans="1:27" ht="60" customHeight="1">
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="O3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="R3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="S3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="T3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="U3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="V3" s="13" t="s">
+      <c r="V3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="W3" s="13" t="s">
+      <c r="W3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="X3" s="16" t="s">
+      <c r="X3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Y3" s="13" t="s">
+      <c r="Y3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="Z3" s="13" t="s">
+      <c r="Z3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AA3" s="13" t="s">
+      <c r="AA3" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="19"/>
-    </row>
-    <row r="5" ht="30" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+    <row r="4" spans="1:27">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="17"/>
+    </row>
+    <row r="5" spans="1:27" ht="30" customHeight="1">
+      <c r="A5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="19" t="s">
+      <c r="J5" s="15"/>
+      <c r="K5" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="17" t="s">
+      <c r="N5" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="24">
+      <c r="O5" s="22">
         <v>111111</v>
       </c>
-      <c r="P5" s="24" t="e">
+      <c r="P5" s="22" t="e">
         <f>B11O5</f>
         <v>#NAME?</v>
       </c>
-      <c r="Q5" s="17" t="s">
+      <c r="Q5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="R5" s="26"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17" t="s">
+      <c r="R5" s="24"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AA5" s="17" t="s">
+      <c r="AA5" s="15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" ht="45" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:27" ht="45" customHeight="1">
+      <c r="A6" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="17" t="s">
+      <c r="N6" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="O6" s="20">
+      <c r="O6" s="18">
         <v>222222</v>
       </c>
-      <c r="P6" s="24">
+      <c r="P6" s="22">
         <f t="shared" ref="P6:P7" si="0">O6</f>
         <v>222222</v>
       </c>
-      <c r="Q6" s="17" t="s">
+      <c r="Q6" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="R6" s="26"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17" t="s">
+      <c r="R6" s="24"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AA6" s="17" t="s">
+      <c r="AA6" s="15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" ht="30" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:27" ht="30" customHeight="1">
+      <c r="A7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="N7" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="20">
+      <c r="O7" s="18">
         <v>333333</v>
       </c>
-      <c r="P7" s="24">
+      <c r="P7" s="22">
         <f t="shared" si="0"/>
         <v>333333</v>
       </c>
-      <c r="Q7" s="17" t="s">
+      <c r="Q7" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="R7" s="26"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17" t="s">
+      <c r="R7" s="24"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AA7" s="17" t="s">
+      <c r="AA7" s="15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" ht="16.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="17"/>
-    </row>
-    <row r="10" ht="16.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="38">
+        <v>43229.519106087959</v>
+      </c>
+      <c r="I8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M8" t="s">
+        <v>76</v>
+      </c>
+      <c r="N8" t="s">
+        <v>76</v>
+      </c>
+      <c r="O8" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>76</v>
+      </c>
+      <c r="R8" t="s">
+        <v>76</v>
+      </c>
+      <c r="S8" t="s">
+        <v>76</v>
+      </c>
+      <c r="T8" t="s">
+        <v>76</v>
+      </c>
+      <c r="U8" t="s">
+        <v>76</v>
+      </c>
+      <c r="V8" t="s">
+        <v>76</v>
+      </c>
+      <c r="W8" t="s">
+        <v>76</v>
+      </c>
+      <c r="X8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="38">
+        <v>43229.519363206018</v>
+      </c>
+      <c r="I9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" t="s">
+        <v>80</v>
+      </c>
+      <c r="L9" t="s">
+        <v>76</v>
+      </c>
+      <c r="M9" t="s">
+        <v>76</v>
+      </c>
+      <c r="N9" t="s">
+        <v>76</v>
+      </c>
+      <c r="O9" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>76</v>
+      </c>
+      <c r="R9" t="s">
+        <v>76</v>
+      </c>
+      <c r="S9" t="s">
+        <v>76</v>
+      </c>
+      <c r="T9" t="s">
+        <v>76</v>
+      </c>
+      <c r="U9" t="s">
+        <v>76</v>
+      </c>
+      <c r="V9" t="s">
+        <v>76</v>
+      </c>
+      <c r="W9" t="s">
+        <v>76</v>
+      </c>
+      <c r="X9" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="38">
+        <v>43229.531475706019</v>
+      </c>
+      <c r="I10" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M10" t="s">
+        <v>76</v>
+      </c>
+      <c r="N10" t="s">
+        <v>76</v>
+      </c>
+      <c r="O10" t="s">
+        <v>76</v>
+      </c>
+      <c r="P10" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>76</v>
+      </c>
+      <c r="R10" t="s">
+        <v>76</v>
+      </c>
+      <c r="S10" t="s">
+        <v>76</v>
+      </c>
+      <c r="T10" t="s">
+        <v>76</v>
+      </c>
+      <c r="U10" t="s">
+        <v>76</v>
+      </c>
+      <c r="V10" t="s">
+        <v>76</v>
+      </c>
+      <c r="W10" t="s">
+        <v>76</v>
+      </c>
+      <c r="X10" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="38">
+        <v>43231.174696944443</v>
+      </c>
+      <c r="I11" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" t="s">
+        <v>76</v>
+      </c>
+      <c r="M11" t="s">
+        <v>76</v>
+      </c>
+      <c r="N11" t="s">
+        <v>76</v>
+      </c>
+      <c r="O11" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>76</v>
+      </c>
+      <c r="R11" t="s">
+        <v>76</v>
+      </c>
+      <c r="S11" t="s">
+        <v>76</v>
+      </c>
+      <c r="T11" t="s">
+        <v>76</v>
+      </c>
+      <c r="U11" t="s">
+        <v>76</v>
+      </c>
+      <c r="V11" t="s">
+        <v>76</v>
+      </c>
+      <c r="W11" t="s">
+        <v>76</v>
+      </c>
+      <c r="X11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="38">
+        <v>43231.179197546298</v>
+      </c>
+      <c r="I12" t="s">
+        <v>88</v>
+      </c>
+      <c r="J12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" t="s">
+        <v>80</v>
+      </c>
+      <c r="L12" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12" t="s">
+        <v>76</v>
+      </c>
+      <c r="N12" t="s">
+        <v>76</v>
+      </c>
+      <c r="O12" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>76</v>
+      </c>
+      <c r="R12" t="s">
+        <v>76</v>
+      </c>
+      <c r="S12" t="s">
+        <v>76</v>
+      </c>
+      <c r="T12" t="s">
+        <v>76</v>
+      </c>
+      <c r="U12" t="s">
+        <v>76</v>
+      </c>
+      <c r="V12" t="s">
+        <v>76</v>
+      </c>
+      <c r="W12" t="s">
+        <v>76</v>
+      </c>
+      <c r="X12" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="38">
+        <v>43231.179508877314</v>
+      </c>
+      <c r="I13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13" t="s">
+        <v>76</v>
+      </c>
+      <c r="N13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O13" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>76</v>
+      </c>
+      <c r="R13" t="s">
+        <v>76</v>
+      </c>
+      <c r="S13" t="s">
+        <v>76</v>
+      </c>
+      <c r="T13" t="s">
+        <v>76</v>
+      </c>
+      <c r="U13" t="s">
+        <v>76</v>
+      </c>
+      <c r="V13" t="s">
+        <v>76</v>
+      </c>
+      <c r="W13" t="s">
+        <v>76</v>
+      </c>
+      <c r="X13" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -2581,22 +3087,22 @@
         <v>76</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G14" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="40">
-        <v>43229.51910608796</v>
+      <c r="H14" s="38">
+        <v>43231.182507372687</v>
       </c>
       <c r="I14" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="J14" t="s">
         <v>76</v>
@@ -2653,7 +3159,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -2664,22 +3170,22 @@
         <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E15" t="s">
         <v>78</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G15" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="40">
-        <v>43229.51936320602</v>
+      <c r="H15" s="38">
+        <v>43231.185189131946</v>
       </c>
       <c r="I15" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="J15" t="s">
         <v>76</v>
@@ -2733,6 +3239,2745 @@
         <v>76</v>
       </c>
       <c r="AA15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="38">
+        <v>43231.198283506943</v>
+      </c>
+      <c r="I16" t="s">
+        <v>95</v>
+      </c>
+      <c r="J16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" t="s">
+        <v>80</v>
+      </c>
+      <c r="L16" t="s">
+        <v>76</v>
+      </c>
+      <c r="M16" t="s">
+        <v>76</v>
+      </c>
+      <c r="N16" t="s">
+        <v>76</v>
+      </c>
+      <c r="O16" t="s">
+        <v>76</v>
+      </c>
+      <c r="P16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>76</v>
+      </c>
+      <c r="R16" t="s">
+        <v>76</v>
+      </c>
+      <c r="S16" t="s">
+        <v>76</v>
+      </c>
+      <c r="T16" t="s">
+        <v>76</v>
+      </c>
+      <c r="U16" t="s">
+        <v>76</v>
+      </c>
+      <c r="V16" t="s">
+        <v>76</v>
+      </c>
+      <c r="W16" t="s">
+        <v>76</v>
+      </c>
+      <c r="X16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="38">
+        <v>43231.202369479171</v>
+      </c>
+      <c r="I17" t="s">
+        <v>97</v>
+      </c>
+      <c r="J17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" t="s">
+        <v>80</v>
+      </c>
+      <c r="L17" t="s">
+        <v>76</v>
+      </c>
+      <c r="M17" t="s">
+        <v>76</v>
+      </c>
+      <c r="N17" t="s">
+        <v>76</v>
+      </c>
+      <c r="O17" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>76</v>
+      </c>
+      <c r="R17" t="s">
+        <v>76</v>
+      </c>
+      <c r="S17" t="s">
+        <v>76</v>
+      </c>
+      <c r="T17" t="s">
+        <v>76</v>
+      </c>
+      <c r="U17" t="s">
+        <v>76</v>
+      </c>
+      <c r="V17" t="s">
+        <v>76</v>
+      </c>
+      <c r="W17" t="s">
+        <v>76</v>
+      </c>
+      <c r="X17" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="38">
+        <v>43231.209715972218</v>
+      </c>
+      <c r="I18" s="38">
+        <v>25569.000023217592</v>
+      </c>
+      <c r="J18" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18" t="s">
+        <v>80</v>
+      </c>
+      <c r="L18" t="s">
+        <v>76</v>
+      </c>
+      <c r="M18" t="s">
+        <v>76</v>
+      </c>
+      <c r="N18" t="s">
+        <v>76</v>
+      </c>
+      <c r="O18" t="s">
+        <v>76</v>
+      </c>
+      <c r="P18" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>76</v>
+      </c>
+      <c r="R18" t="s">
+        <v>76</v>
+      </c>
+      <c r="S18" t="s">
+        <v>76</v>
+      </c>
+      <c r="T18" t="s">
+        <v>76</v>
+      </c>
+      <c r="U18" t="s">
+        <v>76</v>
+      </c>
+      <c r="V18" t="s">
+        <v>76</v>
+      </c>
+      <c r="W18" t="s">
+        <v>76</v>
+      </c>
+      <c r="X18" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="38">
+        <v>43231.221264305554</v>
+      </c>
+      <c r="I19" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19" t="s">
+        <v>76</v>
+      </c>
+      <c r="K19" t="s">
+        <v>80</v>
+      </c>
+      <c r="L19" t="s">
+        <v>76</v>
+      </c>
+      <c r="M19" t="s">
+        <v>76</v>
+      </c>
+      <c r="N19" t="s">
+        <v>76</v>
+      </c>
+      <c r="O19" t="s">
+        <v>76</v>
+      </c>
+      <c r="P19" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>76</v>
+      </c>
+      <c r="R19" t="s">
+        <v>76</v>
+      </c>
+      <c r="S19" t="s">
+        <v>76</v>
+      </c>
+      <c r="T19" t="s">
+        <v>76</v>
+      </c>
+      <c r="U19" t="s">
+        <v>76</v>
+      </c>
+      <c r="V19" t="s">
+        <v>76</v>
+      </c>
+      <c r="W19" t="s">
+        <v>76</v>
+      </c>
+      <c r="X19" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="38">
+        <v>43231.222943842593</v>
+      </c>
+      <c r="I20" t="s">
+        <v>103</v>
+      </c>
+      <c r="J20" t="s">
+        <v>76</v>
+      </c>
+      <c r="K20" t="s">
+        <v>80</v>
+      </c>
+      <c r="L20" t="s">
+        <v>76</v>
+      </c>
+      <c r="M20" t="s">
+        <v>76</v>
+      </c>
+      <c r="N20" t="s">
+        <v>76</v>
+      </c>
+      <c r="O20" t="s">
+        <v>76</v>
+      </c>
+      <c r="P20" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>76</v>
+      </c>
+      <c r="R20" t="s">
+        <v>76</v>
+      </c>
+      <c r="S20" t="s">
+        <v>76</v>
+      </c>
+      <c r="T20" t="s">
+        <v>76</v>
+      </c>
+      <c r="U20" t="s">
+        <v>76</v>
+      </c>
+      <c r="V20" t="s">
+        <v>76</v>
+      </c>
+      <c r="W20" t="s">
+        <v>76</v>
+      </c>
+      <c r="X20" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="38">
+        <v>43231.228480775462</v>
+      </c>
+      <c r="I21" t="s">
+        <v>105</v>
+      </c>
+      <c r="J21" t="s">
+        <v>76</v>
+      </c>
+      <c r="K21" t="s">
+        <v>80</v>
+      </c>
+      <c r="L21" t="s">
+        <v>76</v>
+      </c>
+      <c r="M21" t="s">
+        <v>76</v>
+      </c>
+      <c r="N21" t="s">
+        <v>76</v>
+      </c>
+      <c r="O21" t="s">
+        <v>76</v>
+      </c>
+      <c r="P21" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>76</v>
+      </c>
+      <c r="R21" t="s">
+        <v>76</v>
+      </c>
+      <c r="S21" t="s">
+        <v>76</v>
+      </c>
+      <c r="T21" t="s">
+        <v>76</v>
+      </c>
+      <c r="U21" t="s">
+        <v>76</v>
+      </c>
+      <c r="V21" t="s">
+        <v>76</v>
+      </c>
+      <c r="W21" t="s">
+        <v>76</v>
+      </c>
+      <c r="X21" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" t="s">
+        <v>106</v>
+      </c>
+      <c r="G22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="38">
+        <v>43231.232120405097</v>
+      </c>
+      <c r="I22" t="s">
+        <v>105</v>
+      </c>
+      <c r="J22" t="s">
+        <v>76</v>
+      </c>
+      <c r="K22" t="s">
+        <v>107</v>
+      </c>
+      <c r="L22" t="s">
+        <v>76</v>
+      </c>
+      <c r="M22" t="s">
+        <v>76</v>
+      </c>
+      <c r="N22" t="s">
+        <v>76</v>
+      </c>
+      <c r="O22" t="s">
+        <v>76</v>
+      </c>
+      <c r="P22" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>76</v>
+      </c>
+      <c r="R22" t="s">
+        <v>76</v>
+      </c>
+      <c r="S22" t="s">
+        <v>76</v>
+      </c>
+      <c r="T22" t="s">
+        <v>76</v>
+      </c>
+      <c r="U22" t="s">
+        <v>76</v>
+      </c>
+      <c r="V22" t="s">
+        <v>76</v>
+      </c>
+      <c r="W22" t="s">
+        <v>76</v>
+      </c>
+      <c r="X22" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="38">
+        <v>43231.2325991088</v>
+      </c>
+      <c r="I23" t="s">
+        <v>105</v>
+      </c>
+      <c r="J23" t="s">
+        <v>76</v>
+      </c>
+      <c r="K23" t="s">
+        <v>109</v>
+      </c>
+      <c r="L23" t="s">
+        <v>76</v>
+      </c>
+      <c r="M23" t="s">
+        <v>76</v>
+      </c>
+      <c r="N23" t="s">
+        <v>76</v>
+      </c>
+      <c r="O23" t="s">
+        <v>76</v>
+      </c>
+      <c r="P23" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>76</v>
+      </c>
+      <c r="R23" t="s">
+        <v>76</v>
+      </c>
+      <c r="S23" t="s">
+        <v>76</v>
+      </c>
+      <c r="T23" t="s">
+        <v>76</v>
+      </c>
+      <c r="U23" t="s">
+        <v>76</v>
+      </c>
+      <c r="V23" t="s">
+        <v>76</v>
+      </c>
+      <c r="W23" t="s">
+        <v>76</v>
+      </c>
+      <c r="X23" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="38">
+        <v>43231.233160162039</v>
+      </c>
+      <c r="I24" t="s">
+        <v>105</v>
+      </c>
+      <c r="J24" t="s">
+        <v>76</v>
+      </c>
+      <c r="K24" t="s">
+        <v>111</v>
+      </c>
+      <c r="L24" t="s">
+        <v>76</v>
+      </c>
+      <c r="M24" t="s">
+        <v>76</v>
+      </c>
+      <c r="N24" t="s">
+        <v>76</v>
+      </c>
+      <c r="O24" t="s">
+        <v>76</v>
+      </c>
+      <c r="P24" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>76</v>
+      </c>
+      <c r="R24" t="s">
+        <v>76</v>
+      </c>
+      <c r="S24" t="s">
+        <v>76</v>
+      </c>
+      <c r="T24" t="s">
+        <v>76</v>
+      </c>
+      <c r="U24" t="s">
+        <v>76</v>
+      </c>
+      <c r="V24" t="s">
+        <v>76</v>
+      </c>
+      <c r="W24" t="s">
+        <v>76</v>
+      </c>
+      <c r="X24" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="38">
+        <v>43231.236218194448</v>
+      </c>
+      <c r="I25" t="s">
+        <v>105</v>
+      </c>
+      <c r="J25" t="s">
+        <v>76</v>
+      </c>
+      <c r="K25" t="s">
+        <v>113</v>
+      </c>
+      <c r="L25" t="s">
+        <v>76</v>
+      </c>
+      <c r="M25" t="s">
+        <v>76</v>
+      </c>
+      <c r="N25" t="s">
+        <v>76</v>
+      </c>
+      <c r="O25" t="s">
+        <v>76</v>
+      </c>
+      <c r="P25" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>76</v>
+      </c>
+      <c r="R25" t="s">
+        <v>76</v>
+      </c>
+      <c r="S25" t="s">
+        <v>76</v>
+      </c>
+      <c r="T25" t="s">
+        <v>76</v>
+      </c>
+      <c r="U25" t="s">
+        <v>76</v>
+      </c>
+      <c r="V25" t="s">
+        <v>76</v>
+      </c>
+      <c r="W25" t="s">
+        <v>76</v>
+      </c>
+      <c r="X25" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="38">
+        <v>43231.239412916664</v>
+      </c>
+      <c r="I26" t="s">
+        <v>105</v>
+      </c>
+      <c r="J26" t="s">
+        <v>76</v>
+      </c>
+      <c r="K26" t="s">
+        <v>114</v>
+      </c>
+      <c r="L26" t="s">
+        <v>76</v>
+      </c>
+      <c r="M26" t="s">
+        <v>76</v>
+      </c>
+      <c r="N26" t="s">
+        <v>76</v>
+      </c>
+      <c r="O26" t="s">
+        <v>76</v>
+      </c>
+      <c r="P26" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>76</v>
+      </c>
+      <c r="R26" t="s">
+        <v>76</v>
+      </c>
+      <c r="S26" t="s">
+        <v>76</v>
+      </c>
+      <c r="T26" t="s">
+        <v>76</v>
+      </c>
+      <c r="U26" t="s">
+        <v>76</v>
+      </c>
+      <c r="V26" t="s">
+        <v>76</v>
+      </c>
+      <c r="W26" t="s">
+        <v>76</v>
+      </c>
+      <c r="X26" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" t="s">
+        <v>114</v>
+      </c>
+      <c r="G27" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" s="38">
+        <v>43231.239453460643</v>
+      </c>
+      <c r="I27" t="s">
+        <v>105</v>
+      </c>
+      <c r="J27" t="s">
+        <v>76</v>
+      </c>
+      <c r="K27" t="s">
+        <v>114</v>
+      </c>
+      <c r="L27" t="s">
+        <v>76</v>
+      </c>
+      <c r="M27" t="s">
+        <v>76</v>
+      </c>
+      <c r="N27" t="s">
+        <v>76</v>
+      </c>
+      <c r="O27" t="s">
+        <v>76</v>
+      </c>
+      <c r="P27" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>76</v>
+      </c>
+      <c r="R27" t="s">
+        <v>76</v>
+      </c>
+      <c r="S27" t="s">
+        <v>76</v>
+      </c>
+      <c r="T27" t="s">
+        <v>76</v>
+      </c>
+      <c r="U27" t="s">
+        <v>76</v>
+      </c>
+      <c r="V27" t="s">
+        <v>76</v>
+      </c>
+      <c r="W27" t="s">
+        <v>76</v>
+      </c>
+      <c r="X27" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" t="s">
+        <v>114</v>
+      </c>
+      <c r="G28" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" s="38">
+        <v>43231.240277083329</v>
+      </c>
+      <c r="I28" t="s">
+        <v>105</v>
+      </c>
+      <c r="J28" t="s">
+        <v>76</v>
+      </c>
+      <c r="K28" t="s">
+        <v>114</v>
+      </c>
+      <c r="L28" t="s">
+        <v>76</v>
+      </c>
+      <c r="M28" t="s">
+        <v>76</v>
+      </c>
+      <c r="N28" t="s">
+        <v>76</v>
+      </c>
+      <c r="O28" t="s">
+        <v>76</v>
+      </c>
+      <c r="P28" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>76</v>
+      </c>
+      <c r="R28" t="s">
+        <v>76</v>
+      </c>
+      <c r="S28" t="s">
+        <v>76</v>
+      </c>
+      <c r="T28" t="s">
+        <v>76</v>
+      </c>
+      <c r="U28" t="s">
+        <v>76</v>
+      </c>
+      <c r="V28" t="s">
+        <v>76</v>
+      </c>
+      <c r="W28" t="s">
+        <v>76</v>
+      </c>
+      <c r="X28" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" t="s">
+        <v>114</v>
+      </c>
+      <c r="G29" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" s="38">
+        <v>43231.240595416668</v>
+      </c>
+      <c r="I29" t="s">
+        <v>105</v>
+      </c>
+      <c r="J29" t="s">
+        <v>76</v>
+      </c>
+      <c r="K29" t="s">
+        <v>114</v>
+      </c>
+      <c r="L29" t="s">
+        <v>76</v>
+      </c>
+      <c r="M29" t="s">
+        <v>76</v>
+      </c>
+      <c r="N29" t="s">
+        <v>76</v>
+      </c>
+      <c r="O29" t="s">
+        <v>76</v>
+      </c>
+      <c r="P29" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>76</v>
+      </c>
+      <c r="R29" t="s">
+        <v>76</v>
+      </c>
+      <c r="S29" t="s">
+        <v>76</v>
+      </c>
+      <c r="T29" t="s">
+        <v>76</v>
+      </c>
+      <c r="U29" t="s">
+        <v>76</v>
+      </c>
+      <c r="V29" t="s">
+        <v>76</v>
+      </c>
+      <c r="W29" t="s">
+        <v>76</v>
+      </c>
+      <c r="X29" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" t="s">
+        <v>114</v>
+      </c>
+      <c r="G30" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" s="38">
+        <v>43231.240604849532</v>
+      </c>
+      <c r="I30" t="s">
+        <v>105</v>
+      </c>
+      <c r="J30" t="s">
+        <v>76</v>
+      </c>
+      <c r="K30" t="s">
+        <v>114</v>
+      </c>
+      <c r="L30" t="s">
+        <v>76</v>
+      </c>
+      <c r="M30" t="s">
+        <v>76</v>
+      </c>
+      <c r="N30" t="s">
+        <v>76</v>
+      </c>
+      <c r="O30" t="s">
+        <v>76</v>
+      </c>
+      <c r="P30" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>76</v>
+      </c>
+      <c r="R30" t="s">
+        <v>76</v>
+      </c>
+      <c r="S30" t="s">
+        <v>76</v>
+      </c>
+      <c r="T30" t="s">
+        <v>76</v>
+      </c>
+      <c r="U30" t="s">
+        <v>76</v>
+      </c>
+      <c r="V30" t="s">
+        <v>76</v>
+      </c>
+      <c r="W30" t="s">
+        <v>76</v>
+      </c>
+      <c r="X30" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" t="s">
+        <v>114</v>
+      </c>
+      <c r="G31" t="s">
+        <v>80</v>
+      </c>
+      <c r="H31" s="38">
+        <v>43231.240610590277</v>
+      </c>
+      <c r="I31" t="s">
+        <v>105</v>
+      </c>
+      <c r="J31" t="s">
+        <v>76</v>
+      </c>
+      <c r="K31" t="s">
+        <v>114</v>
+      </c>
+      <c r="L31" t="s">
+        <v>76</v>
+      </c>
+      <c r="M31" t="s">
+        <v>76</v>
+      </c>
+      <c r="N31" t="s">
+        <v>76</v>
+      </c>
+      <c r="O31" t="s">
+        <v>76</v>
+      </c>
+      <c r="P31" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>76</v>
+      </c>
+      <c r="R31" t="s">
+        <v>76</v>
+      </c>
+      <c r="S31" t="s">
+        <v>76</v>
+      </c>
+      <c r="T31" t="s">
+        <v>76</v>
+      </c>
+      <c r="U31" t="s">
+        <v>76</v>
+      </c>
+      <c r="V31" t="s">
+        <v>76</v>
+      </c>
+      <c r="W31" t="s">
+        <v>76</v>
+      </c>
+      <c r="X31" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G32" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" s="38">
+        <v>43231.240614201393</v>
+      </c>
+      <c r="I32" t="s">
+        <v>105</v>
+      </c>
+      <c r="J32" t="s">
+        <v>76</v>
+      </c>
+      <c r="K32" t="s">
+        <v>114</v>
+      </c>
+      <c r="L32" t="s">
+        <v>76</v>
+      </c>
+      <c r="M32" t="s">
+        <v>76</v>
+      </c>
+      <c r="N32" t="s">
+        <v>76</v>
+      </c>
+      <c r="O32" t="s">
+        <v>76</v>
+      </c>
+      <c r="P32" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>76</v>
+      </c>
+      <c r="R32" t="s">
+        <v>76</v>
+      </c>
+      <c r="S32" t="s">
+        <v>76</v>
+      </c>
+      <c r="T32" t="s">
+        <v>76</v>
+      </c>
+      <c r="U32" t="s">
+        <v>76</v>
+      </c>
+      <c r="V32" t="s">
+        <v>76</v>
+      </c>
+      <c r="W32" t="s">
+        <v>76</v>
+      </c>
+      <c r="X32" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G33" t="s">
+        <v>80</v>
+      </c>
+      <c r="H33" s="38">
+        <v>43231.240617523144</v>
+      </c>
+      <c r="I33" t="s">
+        <v>105</v>
+      </c>
+      <c r="J33" t="s">
+        <v>76</v>
+      </c>
+      <c r="K33" t="s">
+        <v>114</v>
+      </c>
+      <c r="L33" t="s">
+        <v>76</v>
+      </c>
+      <c r="M33" t="s">
+        <v>76</v>
+      </c>
+      <c r="N33" t="s">
+        <v>76</v>
+      </c>
+      <c r="O33" t="s">
+        <v>76</v>
+      </c>
+      <c r="P33" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>76</v>
+      </c>
+      <c r="R33" t="s">
+        <v>76</v>
+      </c>
+      <c r="S33" t="s">
+        <v>76</v>
+      </c>
+      <c r="T33" t="s">
+        <v>76</v>
+      </c>
+      <c r="U33" t="s">
+        <v>76</v>
+      </c>
+      <c r="V33" t="s">
+        <v>76</v>
+      </c>
+      <c r="W33" t="s">
+        <v>76</v>
+      </c>
+      <c r="X33" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" t="s">
+        <v>114</v>
+      </c>
+      <c r="G34" t="s">
+        <v>80</v>
+      </c>
+      <c r="H34" s="38">
+        <v>43231.242404756944</v>
+      </c>
+      <c r="I34" t="s">
+        <v>105</v>
+      </c>
+      <c r="J34" t="s">
+        <v>76</v>
+      </c>
+      <c r="K34" t="s">
+        <v>114</v>
+      </c>
+      <c r="L34" t="s">
+        <v>76</v>
+      </c>
+      <c r="M34" t="s">
+        <v>76</v>
+      </c>
+      <c r="N34" t="s">
+        <v>76</v>
+      </c>
+      <c r="O34" t="s">
+        <v>76</v>
+      </c>
+      <c r="P34" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>76</v>
+      </c>
+      <c r="R34" t="s">
+        <v>76</v>
+      </c>
+      <c r="S34" t="s">
+        <v>76</v>
+      </c>
+      <c r="T34" t="s">
+        <v>76</v>
+      </c>
+      <c r="U34" t="s">
+        <v>76</v>
+      </c>
+      <c r="V34" t="s">
+        <v>76</v>
+      </c>
+      <c r="W34" t="s">
+        <v>76</v>
+      </c>
+      <c r="X34" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" t="s">
+        <v>115</v>
+      </c>
+      <c r="G35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H35" s="38">
+        <v>43231.24336197917</v>
+      </c>
+      <c r="I35" t="s">
+        <v>105</v>
+      </c>
+      <c r="J35" t="s">
+        <v>76</v>
+      </c>
+      <c r="K35" t="s">
+        <v>116</v>
+      </c>
+      <c r="L35" t="s">
+        <v>76</v>
+      </c>
+      <c r="M35" t="s">
+        <v>76</v>
+      </c>
+      <c r="N35" t="s">
+        <v>76</v>
+      </c>
+      <c r="O35" t="s">
+        <v>76</v>
+      </c>
+      <c r="P35" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>76</v>
+      </c>
+      <c r="R35" t="s">
+        <v>76</v>
+      </c>
+      <c r="S35" t="s">
+        <v>76</v>
+      </c>
+      <c r="T35" t="s">
+        <v>76</v>
+      </c>
+      <c r="U35" t="s">
+        <v>76</v>
+      </c>
+      <c r="V35" t="s">
+        <v>76</v>
+      </c>
+      <c r="W35" t="s">
+        <v>76</v>
+      </c>
+      <c r="X35" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" t="s">
+        <v>117</v>
+      </c>
+      <c r="G36" t="s">
+        <v>80</v>
+      </c>
+      <c r="H36" s="38">
+        <v>43231.245057939814</v>
+      </c>
+      <c r="I36" t="s">
+        <v>93</v>
+      </c>
+      <c r="J36" t="s">
+        <v>76</v>
+      </c>
+      <c r="K36" t="s">
+        <v>117</v>
+      </c>
+      <c r="L36" t="s">
+        <v>76</v>
+      </c>
+      <c r="M36" t="s">
+        <v>76</v>
+      </c>
+      <c r="N36" t="s">
+        <v>76</v>
+      </c>
+      <c r="O36" t="s">
+        <v>76</v>
+      </c>
+      <c r="P36" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>76</v>
+      </c>
+      <c r="R36" t="s">
+        <v>76</v>
+      </c>
+      <c r="S36" t="s">
+        <v>76</v>
+      </c>
+      <c r="T36" t="s">
+        <v>76</v>
+      </c>
+      <c r="U36" t="s">
+        <v>76</v>
+      </c>
+      <c r="V36" t="s">
+        <v>76</v>
+      </c>
+      <c r="W36" t="s">
+        <v>76</v>
+      </c>
+      <c r="X36" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
+      <c r="A37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" t="s">
+        <v>118</v>
+      </c>
+      <c r="G37" t="s">
+        <v>119</v>
+      </c>
+      <c r="H37" s="38">
+        <v>43231.249065127311</v>
+      </c>
+      <c r="I37" t="s">
+        <v>93</v>
+      </c>
+      <c r="J37" t="s">
+        <v>76</v>
+      </c>
+      <c r="K37" t="s">
+        <v>118</v>
+      </c>
+      <c r="L37" t="s">
+        <v>76</v>
+      </c>
+      <c r="M37" t="s">
+        <v>76</v>
+      </c>
+      <c r="N37" t="s">
+        <v>76</v>
+      </c>
+      <c r="O37" t="s">
+        <v>76</v>
+      </c>
+      <c r="P37" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>76</v>
+      </c>
+      <c r="R37" t="s">
+        <v>76</v>
+      </c>
+      <c r="S37" t="s">
+        <v>76</v>
+      </c>
+      <c r="T37" t="s">
+        <v>76</v>
+      </c>
+      <c r="U37" t="s">
+        <v>76</v>
+      </c>
+      <c r="V37" t="s">
+        <v>76</v>
+      </c>
+      <c r="W37" t="s">
+        <v>76</v>
+      </c>
+      <c r="X37" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
+      <c r="A38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" t="s">
+        <v>84</v>
+      </c>
+      <c r="E38" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" t="s">
+        <v>120</v>
+      </c>
+      <c r="G38" t="s">
+        <v>121</v>
+      </c>
+      <c r="H38" s="38">
+        <v>43231.256770069449</v>
+      </c>
+      <c r="I38" t="s">
+        <v>81</v>
+      </c>
+      <c r="J38" t="s">
+        <v>76</v>
+      </c>
+      <c r="K38" t="s">
+        <v>120</v>
+      </c>
+      <c r="L38" t="s">
+        <v>76</v>
+      </c>
+      <c r="M38" t="s">
+        <v>76</v>
+      </c>
+      <c r="N38" t="s">
+        <v>76</v>
+      </c>
+      <c r="O38" t="s">
+        <v>76</v>
+      </c>
+      <c r="P38" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>76</v>
+      </c>
+      <c r="R38" t="s">
+        <v>76</v>
+      </c>
+      <c r="S38" t="s">
+        <v>76</v>
+      </c>
+      <c r="T38" t="s">
+        <v>76</v>
+      </c>
+      <c r="U38" t="s">
+        <v>76</v>
+      </c>
+      <c r="V38" t="s">
+        <v>76</v>
+      </c>
+      <c r="W38" t="s">
+        <v>76</v>
+      </c>
+      <c r="X38" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" t="s">
+        <v>122</v>
+      </c>
+      <c r="G39" t="s">
+        <v>119</v>
+      </c>
+      <c r="H39" s="38">
+        <v>43231.258041099536</v>
+      </c>
+      <c r="I39" t="s">
+        <v>81</v>
+      </c>
+      <c r="J39" t="s">
+        <v>76</v>
+      </c>
+      <c r="K39" t="s">
+        <v>123</v>
+      </c>
+      <c r="L39" t="s">
+        <v>76</v>
+      </c>
+      <c r="M39" t="s">
+        <v>76</v>
+      </c>
+      <c r="N39" t="s">
+        <v>76</v>
+      </c>
+      <c r="O39" t="s">
+        <v>76</v>
+      </c>
+      <c r="P39" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>76</v>
+      </c>
+      <c r="R39" t="s">
+        <v>76</v>
+      </c>
+      <c r="S39" t="s">
+        <v>76</v>
+      </c>
+      <c r="T39" t="s">
+        <v>76</v>
+      </c>
+      <c r="U39" t="s">
+        <v>76</v>
+      </c>
+      <c r="V39" t="s">
+        <v>76</v>
+      </c>
+      <c r="W39" t="s">
+        <v>76</v>
+      </c>
+      <c r="X39" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27">
+      <c r="A40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
+        <v>124</v>
+      </c>
+      <c r="G40" t="s">
+        <v>119</v>
+      </c>
+      <c r="H40" s="38">
+        <v>43231.260167129629</v>
+      </c>
+      <c r="I40" t="s">
+        <v>81</v>
+      </c>
+      <c r="J40" t="s">
+        <v>76</v>
+      </c>
+      <c r="K40" t="s">
+        <v>125</v>
+      </c>
+      <c r="L40" t="s">
+        <v>76</v>
+      </c>
+      <c r="M40" t="s">
+        <v>76</v>
+      </c>
+      <c r="N40" t="s">
+        <v>76</v>
+      </c>
+      <c r="O40" t="s">
+        <v>76</v>
+      </c>
+      <c r="P40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>76</v>
+      </c>
+      <c r="R40" t="s">
+        <v>76</v>
+      </c>
+      <c r="S40" t="s">
+        <v>76</v>
+      </c>
+      <c r="T40" t="s">
+        <v>76</v>
+      </c>
+      <c r="U40" t="s">
+        <v>76</v>
+      </c>
+      <c r="V40" t="s">
+        <v>76</v>
+      </c>
+      <c r="W40" t="s">
+        <v>76</v>
+      </c>
+      <c r="X40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
+        <v>126</v>
+      </c>
+      <c r="G41" t="s">
+        <v>119</v>
+      </c>
+      <c r="H41" s="38">
+        <v>43231.262908738427</v>
+      </c>
+      <c r="I41" t="s">
+        <v>81</v>
+      </c>
+      <c r="J41" t="s">
+        <v>76</v>
+      </c>
+      <c r="K41" t="s">
+        <v>127</v>
+      </c>
+      <c r="L41" t="s">
+        <v>76</v>
+      </c>
+      <c r="M41" t="s">
+        <v>76</v>
+      </c>
+      <c r="N41" t="s">
+        <v>76</v>
+      </c>
+      <c r="O41" t="s">
+        <v>76</v>
+      </c>
+      <c r="P41" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>76</v>
+      </c>
+      <c r="R41" t="s">
+        <v>76</v>
+      </c>
+      <c r="S41" t="s">
+        <v>76</v>
+      </c>
+      <c r="T41" t="s">
+        <v>76</v>
+      </c>
+      <c r="U41" t="s">
+        <v>76</v>
+      </c>
+      <c r="V41" t="s">
+        <v>76</v>
+      </c>
+      <c r="W41" t="s">
+        <v>76</v>
+      </c>
+      <c r="X41" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27">
+      <c r="A42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" t="s">
+        <v>128</v>
+      </c>
+      <c r="G42" t="s">
+        <v>121</v>
+      </c>
+      <c r="H42" s="38">
+        <v>43231.263154722226</v>
+      </c>
+      <c r="I42" t="s">
+        <v>81</v>
+      </c>
+      <c r="J42" t="s">
+        <v>76</v>
+      </c>
+      <c r="K42" t="s">
+        <v>129</v>
+      </c>
+      <c r="L42" t="s">
+        <v>76</v>
+      </c>
+      <c r="M42" t="s">
+        <v>76</v>
+      </c>
+      <c r="N42" t="s">
+        <v>76</v>
+      </c>
+      <c r="O42" t="s">
+        <v>76</v>
+      </c>
+      <c r="P42" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>76</v>
+      </c>
+      <c r="R42" t="s">
+        <v>76</v>
+      </c>
+      <c r="S42" t="s">
+        <v>76</v>
+      </c>
+      <c r="T42" t="s">
+        <v>76</v>
+      </c>
+      <c r="U42" t="s">
+        <v>76</v>
+      </c>
+      <c r="V42" t="s">
+        <v>76</v>
+      </c>
+      <c r="W42" t="s">
+        <v>76</v>
+      </c>
+      <c r="X42" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27">
+      <c r="A43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" t="s">
+        <v>130</v>
+      </c>
+      <c r="G43" t="s">
+        <v>119</v>
+      </c>
+      <c r="H43" s="38">
+        <v>43231.263997858798</v>
+      </c>
+      <c r="I43" t="s">
+        <v>81</v>
+      </c>
+      <c r="J43" t="s">
+        <v>76</v>
+      </c>
+      <c r="K43" t="s">
+        <v>131</v>
+      </c>
+      <c r="L43" t="s">
+        <v>76</v>
+      </c>
+      <c r="M43" t="s">
+        <v>76</v>
+      </c>
+      <c r="N43" t="s">
+        <v>76</v>
+      </c>
+      <c r="O43" t="s">
+        <v>76</v>
+      </c>
+      <c r="P43" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>76</v>
+      </c>
+      <c r="R43" t="s">
+        <v>76</v>
+      </c>
+      <c r="S43" t="s">
+        <v>76</v>
+      </c>
+      <c r="T43" t="s">
+        <v>76</v>
+      </c>
+      <c r="U43" t="s">
+        <v>76</v>
+      </c>
+      <c r="V43" t="s">
+        <v>76</v>
+      </c>
+      <c r="W43" t="s">
+        <v>76</v>
+      </c>
+      <c r="X43" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27">
+      <c r="A44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" t="s">
+        <v>77</v>
+      </c>
+      <c r="E44" t="s">
+        <v>77</v>
+      </c>
+      <c r="F44" t="s">
+        <v>132</v>
+      </c>
+      <c r="G44" t="s">
+        <v>119</v>
+      </c>
+      <c r="H44" s="38">
+        <v>43231.266265532409</v>
+      </c>
+      <c r="I44" t="s">
+        <v>93</v>
+      </c>
+      <c r="J44" t="s">
+        <v>76</v>
+      </c>
+      <c r="K44" t="s">
+        <v>133</v>
+      </c>
+      <c r="L44" t="s">
+        <v>76</v>
+      </c>
+      <c r="M44" t="s">
+        <v>76</v>
+      </c>
+      <c r="N44" t="s">
+        <v>76</v>
+      </c>
+      <c r="O44" t="s">
+        <v>76</v>
+      </c>
+      <c r="P44" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>76</v>
+      </c>
+      <c r="R44" t="s">
+        <v>76</v>
+      </c>
+      <c r="S44" t="s">
+        <v>76</v>
+      </c>
+      <c r="T44" t="s">
+        <v>76</v>
+      </c>
+      <c r="U44" t="s">
+        <v>76</v>
+      </c>
+      <c r="V44" t="s">
+        <v>76</v>
+      </c>
+      <c r="W44" t="s">
+        <v>76</v>
+      </c>
+      <c r="X44" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27">
+      <c r="A45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" t="s">
+        <v>83</v>
+      </c>
+      <c r="F45" t="s">
+        <v>135</v>
+      </c>
+      <c r="G45" t="s">
+        <v>119</v>
+      </c>
+      <c r="H45" s="38">
+        <v>43231.267808182871</v>
+      </c>
+      <c r="I45" t="s">
+        <v>136</v>
+      </c>
+      <c r="J45" t="s">
+        <v>76</v>
+      </c>
+      <c r="K45" t="s">
+        <v>137</v>
+      </c>
+      <c r="L45" t="s">
+        <v>76</v>
+      </c>
+      <c r="M45" t="s">
+        <v>76</v>
+      </c>
+      <c r="N45" t="s">
+        <v>76</v>
+      </c>
+      <c r="O45" t="s">
+        <v>76</v>
+      </c>
+      <c r="P45" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>76</v>
+      </c>
+      <c r="R45" t="s">
+        <v>76</v>
+      </c>
+      <c r="S45" t="s">
+        <v>76</v>
+      </c>
+      <c r="T45" t="s">
+        <v>76</v>
+      </c>
+      <c r="U45" t="s">
+        <v>76</v>
+      </c>
+      <c r="V45" t="s">
+        <v>76</v>
+      </c>
+      <c r="W45" t="s">
+        <v>76</v>
+      </c>
+      <c r="X45" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27">
+      <c r="A46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" t="s">
+        <v>134</v>
+      </c>
+      <c r="E46" t="s">
+        <v>83</v>
+      </c>
+      <c r="F46" t="s">
+        <v>135</v>
+      </c>
+      <c r="G46" t="s">
+        <v>119</v>
+      </c>
+      <c r="H46" s="38">
+        <v>43231.268242210645</v>
+      </c>
+      <c r="I46" t="s">
+        <v>136</v>
+      </c>
+      <c r="J46" t="s">
+        <v>76</v>
+      </c>
+      <c r="K46" t="s">
+        <v>138</v>
+      </c>
+      <c r="L46" t="s">
+        <v>76</v>
+      </c>
+      <c r="M46" t="s">
+        <v>76</v>
+      </c>
+      <c r="N46" t="s">
+        <v>76</v>
+      </c>
+      <c r="O46" t="s">
+        <v>76</v>
+      </c>
+      <c r="P46" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>76</v>
+      </c>
+      <c r="R46" t="s">
+        <v>76</v>
+      </c>
+      <c r="S46" t="s">
+        <v>76</v>
+      </c>
+      <c r="T46" t="s">
+        <v>76</v>
+      </c>
+      <c r="U46" t="s">
+        <v>76</v>
+      </c>
+      <c r="V46" t="s">
+        <v>76</v>
+      </c>
+      <c r="W46" t="s">
+        <v>76</v>
+      </c>
+      <c r="X46" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27">
+      <c r="A47" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" t="s">
+        <v>78</v>
+      </c>
+      <c r="F47" t="s">
+        <v>139</v>
+      </c>
+      <c r="G47" t="s">
+        <v>119</v>
+      </c>
+      <c r="H47" s="38">
+        <v>43231.268848749998</v>
+      </c>
+      <c r="I47" t="s">
+        <v>95</v>
+      </c>
+      <c r="J47" t="s">
+        <v>76</v>
+      </c>
+      <c r="K47" t="s">
+        <v>140</v>
+      </c>
+      <c r="L47" t="s">
+        <v>76</v>
+      </c>
+      <c r="M47" t="s">
+        <v>76</v>
+      </c>
+      <c r="N47" t="s">
+        <v>76</v>
+      </c>
+      <c r="O47" t="s">
+        <v>76</v>
+      </c>
+      <c r="P47" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>76</v>
+      </c>
+      <c r="R47" t="s">
+        <v>76</v>
+      </c>
+      <c r="S47" t="s">
+        <v>76</v>
+      </c>
+      <c r="T47" t="s">
+        <v>76</v>
+      </c>
+      <c r="U47" t="s">
+        <v>76</v>
+      </c>
+      <c r="V47" t="s">
+        <v>76</v>
+      </c>
+      <c r="W47" t="s">
+        <v>76</v>
+      </c>
+      <c r="X47" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27">
+      <c r="A48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" t="s">
+        <v>134</v>
+      </c>
+      <c r="E48" t="s">
+        <v>83</v>
+      </c>
+      <c r="F48" t="s">
+        <v>135</v>
+      </c>
+      <c r="G48" t="s">
+        <v>119</v>
+      </c>
+      <c r="H48" s="38">
+        <v>43231.269386574073</v>
+      </c>
+      <c r="I48" t="s">
+        <v>136</v>
+      </c>
+      <c r="J48" t="s">
+        <v>76</v>
+      </c>
+      <c r="K48" t="s">
+        <v>141</v>
+      </c>
+      <c r="L48" t="s">
+        <v>76</v>
+      </c>
+      <c r="M48" t="s">
+        <v>76</v>
+      </c>
+      <c r="N48" t="s">
+        <v>76</v>
+      </c>
+      <c r="O48" t="s">
+        <v>76</v>
+      </c>
+      <c r="P48" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>76</v>
+      </c>
+      <c r="R48" t="s">
+        <v>76</v>
+      </c>
+      <c r="S48" t="s">
+        <v>76</v>
+      </c>
+      <c r="T48" t="s">
+        <v>76</v>
+      </c>
+      <c r="U48" t="s">
+        <v>76</v>
+      </c>
+      <c r="V48" t="s">
+        <v>76</v>
+      </c>
+      <c r="W48" t="s">
+        <v>76</v>
+      </c>
+      <c r="X48" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA48" t="s">
         <v>76</v>
       </c>
     </row>

--- a/src/excel/Project Enquiry Register - 18-19 Template.xlsx
+++ b/src/excel/Project Enquiry Register - 18-19 Template.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Client Details" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet sheetId="1" name="Sheet1" r:id="rId4"/>
+    <sheet sheetId="3" name="Client Details" r:id="rId5"/>
+    <sheet sheetId="4" name="Sheet2" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase">Sheet1!$A$4:$AA$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!A1:AA3</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="147">
   <si>
     <t xml:space="preserve"> ENQUIRY REGISTER - 2018 - 2019 FOR PROJECTS</t>
   </si>
@@ -450,55 +450,70 @@
   </si>
   <si>
     <t>jhhjj</t>
+  </si>
+  <si>
+    <t>kkkkkkkkk</t>
+  </si>
+  <si>
+    <t>retort</t>
+  </si>
+  <si>
+    <t>kljlkjlkjklj</t>
+  </si>
+  <si>
+    <t>kljjkl</t>
+  </si>
+  <si>
+    <t>lkjjkl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * -#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ [$₹-4009] * #,##0.00_ ;_ [$₹-4009] * -#,##0.00_ ;_ [$₹-4009] * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* -#,##0.00 ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="6">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
       <color theme="4" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <family val="1"/>
       <sz val="10"/>
       <name val="Book Antiqua"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
+      <color theme="1"/>
+      <family val="1"/>
       <sz val="10"/>
-      <color theme="1"/>
       <name val="Book Antiqua"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
+      <family val="1"/>
       <sz val="10"/>
       <name val="Book Antiqua"/>
-      <family val="1"/>
     </font>
     <font>
+      <color theme="1"/>
+      <family val="1"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Book Antiqua"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -553,16 +568,16 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.1499984740745262"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.1499984740745262"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.1499984740745262"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.1499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,27 +594,27 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.1499984740745262"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.1499984740745262"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.1499984740745262"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.1499984740745262"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.1499984740745262"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.1499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,16 +633,16 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249946592608417"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249946592608417"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249946592608417"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249946592608417"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,7 +650,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -646,7 +661,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -658,10 +673,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -673,10 +691,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -688,7 +709,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -700,7 +721,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -718,10 +739,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -733,7 +754,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -745,19 +766,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1037,15 +1049,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" style="2" customWidth="1"/>
@@ -1072,937 +1084,936 @@
     <col min="25" max="26" width="12.140625" style="1" customWidth="1"/>
     <col min="27" max="27" width="23.7109375" style="3" customWidth="1"/>
     <col min="28" max="28" width="11" style="6" customWidth="1"/>
-    <col min="29" max="29" width="9.140625" style="6" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="6"/>
+    <col min="29" max="16384" width="9.140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="9" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A1" s="39" t="s">
+    <row r="1" ht="16.5" customHeight="1" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="10"/>
-    </row>
-    <row r="2" spans="1:28" s="11" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="39" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="11"/>
+    </row>
+    <row r="2" ht="30" customHeight="1" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40" t="s">
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="13"/>
-    </row>
-    <row r="3" spans="1:28" s="11" customFormat="1" ht="60" customHeight="1">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="12" t="s">
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="15"/>
+    </row>
+    <row r="3" ht="60" customHeight="1" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="O3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="P3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="R3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="S3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="T3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="U3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="V3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="W3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="X3" s="14" t="s">
+      <c r="X3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="Y3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="Z3" s="12" t="s">
+      <c r="Z3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="AA3" s="12" t="s">
+      <c r="AA3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AB3" s="13"/>
-    </row>
-    <row r="4" spans="1:28">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="23"/>
-    </row>
-    <row r="5" spans="1:28" ht="16.5" customHeight="1">
-      <c r="A5" s="15" t="s">
+      <c r="AB3" s="15"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="25"/>
+    </row>
+    <row r="5" ht="16.5" customHeight="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="17" t="s">
+      <c r="J5" s="17"/>
+      <c r="K5" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="22">
+      <c r="O5" s="24">
         <v>111111</v>
       </c>
-      <c r="P5" s="22">
+      <c r="P5" s="24">
         <f>O5</f>
         <v>111111</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="Q5" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="R5" s="24"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15" t="s">
+      <c r="R5" s="26"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AA5" s="15" t="s">
+      <c r="AA5" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AB5" s="23"/>
-    </row>
-    <row r="6" spans="1:28" ht="16.5" customHeight="1">
-      <c r="A6" s="15" t="s">
+      <c r="AB5" s="25"/>
+    </row>
+    <row r="6" ht="16.5" customHeight="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="M6" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="O6" s="18">
+      <c r="O6" s="20">
         <v>222222</v>
       </c>
-      <c r="P6" s="22">
+      <c r="P6" s="24">
         <f t="shared" ref="P6:P7" si="0">O6</f>
         <v>222222</v>
       </c>
-      <c r="Q6" s="15" t="s">
+      <c r="Q6" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="R6" s="24"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15" t="s">
+      <c r="R6" s="26"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AA6" s="15" t="s">
+      <c r="AA6" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AB6" s="23"/>
-    </row>
-    <row r="7" spans="1:28" ht="16.5" customHeight="1">
-      <c r="A7" s="15" t="s">
+      <c r="AB6" s="25"/>
+    </row>
+    <row r="7" ht="16.5" customHeight="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="M7" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="N7" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="18">
+      <c r="O7" s="20">
         <v>333333</v>
       </c>
-      <c r="P7" s="22">
+      <c r="P7" s="24">
         <f t="shared" si="0"/>
         <v>333333</v>
       </c>
-      <c r="Q7" s="15" t="s">
+      <c r="Q7" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="R7" s="24"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15" t="s">
+      <c r="R7" s="26"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AA7" s="15" t="s">
+      <c r="AA7" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AB7" s="23"/>
-    </row>
-    <row r="8" spans="1:28" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="26"/>
-    </row>
-    <row r="9" spans="1:28" s="25" customFormat="1" ht="30" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="26"/>
-    </row>
-    <row r="10" spans="1:28" s="25" customFormat="1" ht="30" customHeight="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="26"/>
-    </row>
-    <row r="11" spans="1:28" s="25" customFormat="1" ht="30" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="26"/>
-    </row>
-    <row r="12" spans="1:28" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="26"/>
-    </row>
-    <row r="13" spans="1:28" s="25" customFormat="1" ht="30" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="26"/>
-    </row>
-    <row r="14" spans="1:28" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="26"/>
-    </row>
-    <row r="15" spans="1:28" s="25" customFormat="1" ht="30" customHeight="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="26"/>
-    </row>
-    <row r="16" spans="1:28" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="26"/>
-    </row>
-    <row r="17" spans="1:28" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="15"/>
-      <c r="AB17" s="26"/>
-    </row>
-    <row r="18" spans="1:28" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="26"/>
-    </row>
-    <row r="19" spans="1:28" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="26"/>
-    </row>
-    <row r="20" spans="1:28" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="26"/>
-    </row>
-    <row r="21" spans="1:28" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="15"/>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="26"/>
-    </row>
-    <row r="22" spans="1:28" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="26"/>
-    </row>
-    <row r="23" spans="1:28" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="15"/>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="26"/>
-    </row>
-    <row r="24" spans="1:28" s="25" customFormat="1">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="15"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="15"/>
-      <c r="X24" s="22"/>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="15"/>
-      <c r="AA24" s="17"/>
-      <c r="AB24" s="26"/>
-    </row>
-    <row r="25" spans="1:28">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="37"/>
-      <c r="Y25" s="30"/>
-      <c r="Z25" s="30"/>
-      <c r="AA25" s="32"/>
-    </row>
-    <row r="26" spans="1:28">
+      <c r="AB7" s="25"/>
+    </row>
+    <row r="8" ht="16.5" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="28"/>
+    </row>
+    <row r="9" ht="30" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="28"/>
+    </row>
+    <row r="10" ht="30" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="28"/>
+    </row>
+    <row r="11" ht="30" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="28"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="28"/>
+    </row>
+    <row r="13" ht="30" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="28"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="28"/>
+    </row>
+    <row r="15" ht="30" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="28"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="28"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="28"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="28"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="28"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="28"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="28"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="28"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="28"/>
+    </row>
+    <row r="24" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="28"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="32"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="32"/>
+      <c r="AA25" s="34"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>64</v>
       </c>
@@ -2010,7 +2021,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>64</v>
       </c>
@@ -2018,7 +2029,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>64</v>
       </c>
@@ -2026,7 +2037,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>64</v>
       </c>
@@ -2034,7 +2045,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>64</v>
       </c>
@@ -2042,7 +2053,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>64</v>
       </c>
@@ -2050,7 +2061,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
@@ -2058,7 +2069,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -2066,7 +2077,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>64</v>
       </c>
@@ -2074,7 +2085,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>64</v>
       </c>
@@ -2082,7 +2093,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>64</v>
       </c>
@@ -2102,26 +2113,26 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
   </mergeCells>
-  <pageMargins left="0.2" right="0.19685039370078741" top="0.39370078740157483" bottom="0.27559055118110237" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="65" orientation="landscape" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="1200"/>
+  <pageMargins left="0.2" right="0.1968503937007874" top="0.3937007874015748" bottom="0.2755905511811024" header="0.1968503937007874" footer="0.1968503937007874"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="1200" scale="65" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -2129,17 +2140,17 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -2147,7 +2158,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -2155,7 +2166,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -2163,7 +2174,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -2171,7 +2182,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -2184,401 +2195,401 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA48"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0"/>
   <cols>
     <col min="8" max="8" width="28" customWidth="1"/>
     <col min="15" max="15" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-    </row>
-    <row r="2" spans="1:27">
-      <c r="A2" s="39" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40" t="s">
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-    </row>
-    <row r="3" spans="1:27" ht="60" customHeight="1">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="12" t="s">
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+    </row>
+    <row r="3" ht="60" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="O3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="P3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="R3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="S3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="T3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="U3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="V3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="W3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="X3" s="14" t="s">
+      <c r="X3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="Y3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="Z3" s="12" t="s">
+      <c r="Z3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="AA3" s="12" t="s">
+      <c r="AA3" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="17"/>
-    </row>
-    <row r="5" spans="1:27" ht="30" customHeight="1">
-      <c r="A5" s="15" t="s">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="19"/>
+    </row>
+    <row r="5" ht="30" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="17" t="s">
+      <c r="J5" s="17"/>
+      <c r="K5" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="22">
+      <c r="O5" s="24">
         <v>111111</v>
       </c>
-      <c r="P5" s="22" t="e">
+      <c r="P5" s="24" t="e">
         <f>B11O5</f>
         <v>#NAME?</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="Q5" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="R5" s="24"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15" t="s">
+      <c r="R5" s="26"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AA5" s="15" t="s">
+      <c r="AA5" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="45" customHeight="1">
-      <c r="A6" s="15" t="s">
+    <row r="6" ht="45" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="M6" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="O6" s="18">
+      <c r="O6" s="20">
         <v>222222</v>
       </c>
-      <c r="P6" s="22">
+      <c r="P6" s="24">
         <f t="shared" ref="P6:P7" si="0">O6</f>
         <v>222222</v>
       </c>
-      <c r="Q6" s="15" t="s">
+      <c r="Q6" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="R6" s="24"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15" t="s">
+      <c r="R6" s="26"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AA6" s="15" t="s">
+      <c r="AA6" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="30" customHeight="1">
-      <c r="A7" s="15" t="s">
+    <row r="7" ht="30" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="M7" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="N7" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="18">
+      <c r="O7" s="20">
         <v>333333</v>
       </c>
-      <c r="P7" s="22">
+      <c r="P7" s="24">
         <f t="shared" si="0"/>
         <v>333333</v>
       </c>
-      <c r="Q7" s="15" t="s">
+      <c r="Q7" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="R7" s="24"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15" t="s">
+      <c r="R7" s="26"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AA7" s="15" t="s">
+      <c r="AA7" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -2600,8 +2611,8 @@
       <c r="G8" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="38">
-        <v>43229.519106087959</v>
+      <c r="H8" s="40">
+        <v>43229.51910608796</v>
       </c>
       <c r="I8" t="s">
         <v>81</v>
@@ -2661,7 +2672,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2683,8 +2694,8 @@
       <c r="G9" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="38">
-        <v>43229.519363206018</v>
+      <c r="H9" s="40">
+        <v>43229.51936320602</v>
       </c>
       <c r="I9" t="s">
         <v>81</v>
@@ -2744,7 +2755,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -2766,8 +2777,8 @@
       <c r="G10" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="38">
-        <v>43229.531475706019</v>
+      <c r="H10" s="40">
+        <v>43229.53147570602</v>
       </c>
       <c r="I10" t="s">
         <v>86</v>
@@ -2827,7 +2838,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -2849,8 +2860,8 @@
       <c r="G11" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="38">
-        <v>43231.174696944443</v>
+      <c r="H11" s="40">
+        <v>43231.17469694444</v>
       </c>
       <c r="I11" t="s">
         <v>88</v>
@@ -2910,7 +2921,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -2932,8 +2943,8 @@
       <c r="G12" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="38">
-        <v>43231.179197546298</v>
+      <c r="H12" s="40">
+        <v>43231.1791975463</v>
       </c>
       <c r="I12" t="s">
         <v>88</v>
@@ -2993,7 +3004,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -3015,7 +3026,7 @@
       <c r="G13" t="s">
         <v>80</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H13" s="40">
         <v>43231.179508877314</v>
       </c>
       <c r="I13" t="s">
@@ -3076,7 +3087,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -3098,8 +3109,8 @@
       <c r="G14" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="38">
-        <v>43231.182507372687</v>
+      <c r="H14" s="40">
+        <v>43231.18250737269</v>
       </c>
       <c r="I14" t="s">
         <v>88</v>
@@ -3159,7 +3170,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -3181,7 +3192,7 @@
       <c r="G15" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="38">
+      <c r="H15" s="40">
         <v>43231.185189131946</v>
       </c>
       <c r="I15" t="s">
@@ -3242,7 +3253,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -3264,8 +3275,8 @@
       <c r="G16" t="s">
         <v>80</v>
       </c>
-      <c r="H16" s="38">
-        <v>43231.198283506943</v>
+      <c r="H16" s="40">
+        <v>43231.19828350694</v>
       </c>
       <c r="I16" t="s">
         <v>95</v>
@@ -3325,7 +3336,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -3347,8 +3358,8 @@
       <c r="G17" t="s">
         <v>80</v>
       </c>
-      <c r="H17" s="38">
-        <v>43231.202369479171</v>
+      <c r="H17" s="40">
+        <v>43231.20236947917</v>
       </c>
       <c r="I17" t="s">
         <v>97</v>
@@ -3408,7 +3419,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -3430,11 +3441,11 @@
       <c r="G18" t="s">
         <v>80</v>
       </c>
-      <c r="H18" s="38">
-        <v>43231.209715972218</v>
-      </c>
-      <c r="I18" s="38">
-        <v>25569.000023217592</v>
+      <c r="H18" s="40">
+        <v>43231.20971597222</v>
+      </c>
+      <c r="I18" s="40">
+        <v>25569.00002321759</v>
       </c>
       <c r="J18" t="s">
         <v>76</v>
@@ -3491,7 +3502,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -3513,8 +3524,8 @@
       <c r="G19" t="s">
         <v>80</v>
       </c>
-      <c r="H19" s="38">
-        <v>43231.221264305554</v>
+      <c r="H19" s="40">
+        <v>43231.22126430555</v>
       </c>
       <c r="I19" t="s">
         <v>95</v>
@@ -3574,7 +3585,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -3596,8 +3607,8 @@
       <c r="G20" t="s">
         <v>80</v>
       </c>
-      <c r="H20" s="38">
-        <v>43231.222943842593</v>
+      <c r="H20" s="40">
+        <v>43231.22294384259</v>
       </c>
       <c r="I20" t="s">
         <v>103</v>
@@ -3657,7 +3668,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -3679,8 +3690,8 @@
       <c r="G21" t="s">
         <v>80</v>
       </c>
-      <c r="H21" s="38">
-        <v>43231.228480775462</v>
+      <c r="H21" s="40">
+        <v>43231.22848077546</v>
       </c>
       <c r="I21" t="s">
         <v>105</v>
@@ -3740,7 +3751,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -3762,8 +3773,8 @@
       <c r="G22" t="s">
         <v>80</v>
       </c>
-      <c r="H22" s="38">
-        <v>43231.232120405097</v>
+      <c r="H22" s="40">
+        <v>43231.2321204051</v>
       </c>
       <c r="I22" t="s">
         <v>105</v>
@@ -3823,7 +3834,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -3845,7 +3856,7 @@
       <c r="G23" t="s">
         <v>80</v>
       </c>
-      <c r="H23" s="38">
+      <c r="H23" s="40">
         <v>43231.2325991088</v>
       </c>
       <c r="I23" t="s">
@@ -3906,7 +3917,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -3928,8 +3939,8 @@
       <c r="G24" t="s">
         <v>80</v>
       </c>
-      <c r="H24" s="38">
-        <v>43231.233160162039</v>
+      <c r="H24" s="40">
+        <v>43231.23316016204</v>
       </c>
       <c r="I24" t="s">
         <v>105</v>
@@ -3989,7 +4000,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -4011,8 +4022,8 @@
       <c r="G25" t="s">
         <v>80</v>
       </c>
-      <c r="H25" s="38">
-        <v>43231.236218194448</v>
+      <c r="H25" s="40">
+        <v>43231.23621819445</v>
       </c>
       <c r="I25" t="s">
         <v>105</v>
@@ -4072,7 +4083,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -4094,7 +4105,7 @@
       <c r="G26" t="s">
         <v>80</v>
       </c>
-      <c r="H26" s="38">
+      <c r="H26" s="40">
         <v>43231.239412916664</v>
       </c>
       <c r="I26" t="s">
@@ -4155,7 +4166,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -4177,8 +4188,8 @@
       <c r="G27" t="s">
         <v>80</v>
       </c>
-      <c r="H27" s="38">
-        <v>43231.239453460643</v>
+      <c r="H27" s="40">
+        <v>43231.23945346064</v>
       </c>
       <c r="I27" t="s">
         <v>105</v>
@@ -4238,7 +4249,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -4260,8 +4271,8 @@
       <c r="G28" t="s">
         <v>80</v>
       </c>
-      <c r="H28" s="38">
-        <v>43231.240277083329</v>
+      <c r="H28" s="40">
+        <v>43231.24027708333</v>
       </c>
       <c r="I28" t="s">
         <v>105</v>
@@ -4321,7 +4332,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -4343,8 +4354,8 @@
       <c r="G29" t="s">
         <v>80</v>
       </c>
-      <c r="H29" s="38">
-        <v>43231.240595416668</v>
+      <c r="H29" s="40">
+        <v>43231.24059541667</v>
       </c>
       <c r="I29" t="s">
         <v>105</v>
@@ -4404,7 +4415,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -4426,8 +4437,8 @@
       <c r="G30" t="s">
         <v>80</v>
       </c>
-      <c r="H30" s="38">
-        <v>43231.240604849532</v>
+      <c r="H30" s="40">
+        <v>43231.24060484953</v>
       </c>
       <c r="I30" t="s">
         <v>105</v>
@@ -4487,7 +4498,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -4509,8 +4520,8 @@
       <c r="G31" t="s">
         <v>80</v>
       </c>
-      <c r="H31" s="38">
-        <v>43231.240610590277</v>
+      <c r="H31" s="40">
+        <v>43231.24061059028</v>
       </c>
       <c r="I31" t="s">
         <v>105</v>
@@ -4570,7 +4581,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -4592,8 +4603,8 @@
       <c r="G32" t="s">
         <v>80</v>
       </c>
-      <c r="H32" s="38">
-        <v>43231.240614201393</v>
+      <c r="H32" s="40">
+        <v>43231.24061420139</v>
       </c>
       <c r="I32" t="s">
         <v>105</v>
@@ -4653,7 +4664,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -4675,7 +4686,7 @@
       <c r="G33" t="s">
         <v>80</v>
       </c>
-      <c r="H33" s="38">
+      <c r="H33" s="40">
         <v>43231.240617523144</v>
       </c>
       <c r="I33" t="s">
@@ -4736,7 +4747,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -4758,7 +4769,7 @@
       <c r="G34" t="s">
         <v>80</v>
       </c>
-      <c r="H34" s="38">
+      <c r="H34" s="40">
         <v>43231.242404756944</v>
       </c>
       <c r="I34" t="s">
@@ -4819,7 +4830,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -4841,7 +4852,7 @@
       <c r="G35" t="s">
         <v>80</v>
       </c>
-      <c r="H35" s="38">
+      <c r="H35" s="40">
         <v>43231.24336197917</v>
       </c>
       <c r="I35" t="s">
@@ -4902,7 +4913,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -4924,7 +4935,7 @@
       <c r="G36" t="s">
         <v>80</v>
       </c>
-      <c r="H36" s="38">
+      <c r="H36" s="40">
         <v>43231.245057939814</v>
       </c>
       <c r="I36" t="s">
@@ -4985,7 +4996,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>64</v>
       </c>
@@ -5007,8 +5018,8 @@
       <c r="G37" t="s">
         <v>119</v>
       </c>
-      <c r="H37" s="38">
-        <v>43231.249065127311</v>
+      <c r="H37" s="40">
+        <v>43231.24906512731</v>
       </c>
       <c r="I37" t="s">
         <v>93</v>
@@ -5068,7 +5079,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -5090,8 +5101,8 @@
       <c r="G38" t="s">
         <v>121</v>
       </c>
-      <c r="H38" s="38">
-        <v>43231.256770069449</v>
+      <c r="H38" s="40">
+        <v>43231.25677006945</v>
       </c>
       <c r="I38" t="s">
         <v>81</v>
@@ -5151,7 +5162,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -5173,7 +5184,7 @@
       <c r="G39" t="s">
         <v>119</v>
       </c>
-      <c r="H39" s="38">
+      <c r="H39" s="40">
         <v>43231.258041099536</v>
       </c>
       <c r="I39" t="s">
@@ -5234,7 +5245,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>64</v>
       </c>
@@ -5256,8 +5267,8 @@
       <c r="G40" t="s">
         <v>119</v>
       </c>
-      <c r="H40" s="38">
-        <v>43231.260167129629</v>
+      <c r="H40" s="40">
+        <v>43231.26016712963</v>
       </c>
       <c r="I40" t="s">
         <v>81</v>
@@ -5317,7 +5328,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -5339,8 +5350,8 @@
       <c r="G41" t="s">
         <v>119</v>
       </c>
-      <c r="H41" s="38">
-        <v>43231.262908738427</v>
+      <c r="H41" s="40">
+        <v>43231.26290873843</v>
       </c>
       <c r="I41" t="s">
         <v>81</v>
@@ -5400,7 +5411,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -5422,7 +5433,7 @@
       <c r="G42" t="s">
         <v>121</v>
       </c>
-      <c r="H42" s="38">
+      <c r="H42" s="40">
         <v>43231.263154722226</v>
       </c>
       <c r="I42" t="s">
@@ -5483,7 +5494,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -5505,8 +5516,8 @@
       <c r="G43" t="s">
         <v>119</v>
       </c>
-      <c r="H43" s="38">
-        <v>43231.263997858798</v>
+      <c r="H43" s="40">
+        <v>43231.2639978588</v>
       </c>
       <c r="I43" t="s">
         <v>81</v>
@@ -5566,7 +5577,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>64</v>
       </c>
@@ -5588,8 +5599,8 @@
       <c r="G44" t="s">
         <v>119</v>
       </c>
-      <c r="H44" s="38">
-        <v>43231.266265532409</v>
+      <c r="H44" s="40">
+        <v>43231.26626553241</v>
       </c>
       <c r="I44" t="s">
         <v>93</v>
@@ -5649,7 +5660,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>31</v>
       </c>
@@ -5671,8 +5682,8 @@
       <c r="G45" t="s">
         <v>119</v>
       </c>
-      <c r="H45" s="38">
-        <v>43231.267808182871</v>
+      <c r="H45" s="40">
+        <v>43231.26780818287</v>
       </c>
       <c r="I45" t="s">
         <v>136</v>
@@ -5732,7 +5743,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -5754,7 +5765,7 @@
       <c r="G46" t="s">
         <v>119</v>
       </c>
-      <c r="H46" s="38">
+      <c r="H46" s="40">
         <v>43231.268242210645</v>
       </c>
       <c r="I46" t="s">
@@ -5815,7 +5826,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>64</v>
       </c>
@@ -5837,8 +5848,8 @@
       <c r="G47" t="s">
         <v>119</v>
       </c>
-      <c r="H47" s="38">
-        <v>43231.268848749998</v>
+      <c r="H47" s="40">
+        <v>43231.26884875</v>
       </c>
       <c r="I47" t="s">
         <v>95</v>
@@ -5898,7 +5909,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>31</v>
       </c>
@@ -5920,8 +5931,8 @@
       <c r="G48" t="s">
         <v>119</v>
       </c>
-      <c r="H48" s="38">
-        <v>43231.269386574073</v>
+      <c r="H48" s="40">
+        <v>43231.26938657407</v>
       </c>
       <c r="I48" t="s">
         <v>136</v>
@@ -5978,6 +5989,172 @@
         <v>76</v>
       </c>
       <c r="AA48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49" t="s">
+        <v>142</v>
+      </c>
+      <c r="F49" t="s">
+        <v>143</v>
+      </c>
+      <c r="G49" t="s">
+        <v>119</v>
+      </c>
+      <c r="H49" s="40">
+        <v>43231.275544212964</v>
+      </c>
+      <c r="I49" t="s">
+        <v>95</v>
+      </c>
+      <c r="J49" t="s">
+        <v>76</v>
+      </c>
+      <c r="K49" t="s">
+        <v>144</v>
+      </c>
+      <c r="L49" t="s">
+        <v>76</v>
+      </c>
+      <c r="M49" t="s">
+        <v>76</v>
+      </c>
+      <c r="N49" t="s">
+        <v>76</v>
+      </c>
+      <c r="O49" t="s">
+        <v>76</v>
+      </c>
+      <c r="P49" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>76</v>
+      </c>
+      <c r="R49" t="s">
+        <v>76</v>
+      </c>
+      <c r="S49" t="s">
+        <v>76</v>
+      </c>
+      <c r="T49" t="s">
+        <v>76</v>
+      </c>
+      <c r="U49" t="s">
+        <v>76</v>
+      </c>
+      <c r="V49" t="s">
+        <v>76</v>
+      </c>
+      <c r="W49" t="s">
+        <v>76</v>
+      </c>
+      <c r="X49" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
+        <v>145</v>
+      </c>
+      <c r="G50" t="s">
+        <v>119</v>
+      </c>
+      <c r="H50" s="40">
+        <v>43231.29015115741</v>
+      </c>
+      <c r="I50" t="s">
+        <v>81</v>
+      </c>
+      <c r="J50" t="s">
+        <v>76</v>
+      </c>
+      <c r="K50" t="s">
+        <v>146</v>
+      </c>
+      <c r="L50" t="s">
+        <v>76</v>
+      </c>
+      <c r="M50" t="s">
+        <v>76</v>
+      </c>
+      <c r="N50" t="s">
+        <v>76</v>
+      </c>
+      <c r="O50" t="s">
+        <v>76</v>
+      </c>
+      <c r="P50" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>76</v>
+      </c>
+      <c r="R50" t="s">
+        <v>76</v>
+      </c>
+      <c r="S50" t="s">
+        <v>76</v>
+      </c>
+      <c r="T50" t="s">
+        <v>76</v>
+      </c>
+      <c r="U50" t="s">
+        <v>76</v>
+      </c>
+      <c r="V50" t="s">
+        <v>76</v>
+      </c>
+      <c r="W50" t="s">
+        <v>76</v>
+      </c>
+      <c r="X50" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA50" t="s">
         <v>76</v>
       </c>
     </row>

--- a/src/excel/Project Enquiry Register - 18-19 Template.xlsx
+++ b/src/excel/Project Enquiry Register - 18-19 Template.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Client Details" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet sheetId="1" name="Sheet1" r:id="rId4"/>
+    <sheet sheetId="3" name="Client Details" r:id="rId5"/>
+    <sheet sheetId="4" name="Sheet2" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase">Sheet1!$A$4:$AA$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!A1:AA3</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="93">
   <si>
     <t xml:space="preserve"> ENQUIRY REGISTER - 2018 - 2019 FOR PROJECTS</t>
   </si>
@@ -252,55 +252,106 @@
   </si>
   <si>
     <t xml:space="preserve">Hydrogenics Europe </t>
+  </si>
+  <si>
+    <t>1819P004</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>ds</t>
+  </si>
+  <si>
+    <t>oneone</t>
+  </si>
+  <si>
+    <t>onetwothree</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>2018-05-13</t>
+  </si>
+  <si>
+    <t>onefourfive</t>
+  </si>
+  <si>
+    <t>sekar</t>
+  </si>
+  <si>
+    <t>ashok leyland</t>
+  </si>
+  <si>
+    <t>arun</t>
+  </si>
+  <si>
+    <t>2018-02-12</t>
+  </si>
+  <si>
+    <t>09809908</t>
+  </si>
+  <si>
+    <t>1819P005</t>
+  </si>
+  <si>
+    <t>wheels</t>
+  </si>
+  <si>
+    <t>twothree</t>
+  </si>
+  <si>
+    <t>foursae</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * -#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ [$₹-4009] * #,##0.00_ ;_ [$₹-4009] * -#,##0.00_ ;_ [$₹-4009] * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* -#,##0.00 ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="6">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
       <color theme="4" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <family val="1"/>
       <sz val="10"/>
       <name val="Book Antiqua"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
+      <color theme="1"/>
+      <family val="1"/>
       <sz val="10"/>
-      <color theme="1"/>
       <name val="Book Antiqua"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
+      <family val="1"/>
       <sz val="10"/>
       <name val="Book Antiqua"/>
-      <family val="1"/>
     </font>
     <font>
+      <color theme="1"/>
+      <family val="1"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Book Antiqua"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -355,16 +406,16 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.1499984740745262"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.1499984740745262"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.1499984740745262"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.1499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -381,27 +432,27 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.1499984740745262"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.1499984740745262"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.1499984740745262"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.1499984740745262"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.1499984740745262"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
+        <color theme="0" tint="-0.1499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -420,16 +471,16 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249946592608417"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249946592608417"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249946592608417"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249946592608417"/>
       </bottom>
       <diagonal/>
     </border>
@@ -448,7 +499,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -460,12 +511,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -475,10 +529,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -490,7 +547,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -502,7 +559,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -520,12 +577,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -535,7 +592,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -547,18 +604,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -838,15 +887,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" style="2" customWidth="1"/>
@@ -873,937 +922,936 @@
     <col min="25" max="26" width="12.140625" style="1" customWidth="1"/>
     <col min="27" max="27" width="23.7109375" style="3" customWidth="1"/>
     <col min="28" max="28" width="11" style="6" customWidth="1"/>
-    <col min="29" max="29" width="9.140625" style="6" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="6"/>
+    <col min="29" max="16384" width="9.140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="9" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A1" s="38" t="s">
+    <row r="1" ht="16.5" customHeight="1" spans="1:28" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="10"/>
-    </row>
-    <row r="2" spans="1:28" s="11" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="11"/>
+    </row>
+    <row r="2" ht="30" customHeight="1" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39" t="s">
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="39"/>
-      <c r="AB2" s="13"/>
-    </row>
-    <row r="3" spans="1:28" s="11" customFormat="1" ht="60" customHeight="1">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="12" t="s">
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="15"/>
+    </row>
+    <row r="3" ht="60" customHeight="1" spans="1:28" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="O3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="P3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="R3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="S3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="T3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="U3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="V3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="W3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="X3" s="14" t="s">
+      <c r="X3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="Y3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="Z3" s="12" t="s">
+      <c r="Z3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="AA3" s="12" t="s">
+      <c r="AA3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AB3" s="13"/>
-    </row>
-    <row r="4" spans="1:28">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="23"/>
-    </row>
-    <row r="5" spans="1:28" ht="16.5" customHeight="1">
-      <c r="A5" s="15" t="s">
+      <c r="AB3" s="15"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="25"/>
+    </row>
+    <row r="5" ht="16.5" customHeight="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="17" t="s">
+      <c r="J5" s="17"/>
+      <c r="K5" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="22">
+      <c r="O5" s="24">
         <v>111111</v>
       </c>
-      <c r="P5" s="22">
+      <c r="P5" s="24">
         <f>O5</f>
         <v>111111</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="Q5" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="R5" s="24"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15" t="s">
+      <c r="R5" s="26"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AA5" s="15" t="s">
+      <c r="AA5" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AB5" s="23"/>
-    </row>
-    <row r="6" spans="1:28" ht="16.5" customHeight="1">
-      <c r="A6" s="15" t="s">
+      <c r="AB5" s="25"/>
+    </row>
+    <row r="6" ht="16.5" customHeight="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="M6" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="O6" s="18">
+      <c r="O6" s="20">
         <v>222222</v>
       </c>
-      <c r="P6" s="22">
+      <c r="P6" s="24">
         <f t="shared" ref="P6:P7" si="0">O6</f>
         <v>222222</v>
       </c>
-      <c r="Q6" s="15" t="s">
+      <c r="Q6" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="R6" s="24"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15" t="s">
+      <c r="R6" s="26"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AA6" s="15" t="s">
+      <c r="AA6" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AB6" s="23"/>
-    </row>
-    <row r="7" spans="1:28" ht="16.5" customHeight="1">
-      <c r="A7" s="15" t="s">
+      <c r="AB6" s="25"/>
+    </row>
+    <row r="7" ht="16.5" customHeight="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="M7" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="N7" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="18">
+      <c r="O7" s="20">
         <v>333333</v>
       </c>
-      <c r="P7" s="22">
+      <c r="P7" s="24">
         <f t="shared" si="0"/>
         <v>333333</v>
       </c>
-      <c r="Q7" s="15" t="s">
+      <c r="Q7" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="R7" s="24"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15" t="s">
+      <c r="R7" s="26"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AA7" s="15" t="s">
+      <c r="AA7" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AB7" s="23"/>
-    </row>
-    <row r="8" spans="1:28" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="26"/>
-    </row>
-    <row r="9" spans="1:28" s="25" customFormat="1" ht="30" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="26"/>
-    </row>
-    <row r="10" spans="1:28" s="25" customFormat="1" ht="30" customHeight="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="26"/>
-    </row>
-    <row r="11" spans="1:28" s="25" customFormat="1" ht="30" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="26"/>
-    </row>
-    <row r="12" spans="1:28" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="26"/>
-    </row>
-    <row r="13" spans="1:28" s="25" customFormat="1" ht="30" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="26"/>
-    </row>
-    <row r="14" spans="1:28" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="26"/>
-    </row>
-    <row r="15" spans="1:28" s="25" customFormat="1" ht="30" customHeight="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="26"/>
-    </row>
-    <row r="16" spans="1:28" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="26"/>
-    </row>
-    <row r="17" spans="1:28" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="15"/>
-      <c r="AB17" s="26"/>
-    </row>
-    <row r="18" spans="1:28" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="26"/>
-    </row>
-    <row r="19" spans="1:28" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="26"/>
-    </row>
-    <row r="20" spans="1:28" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="15"/>
-      <c r="Y20" s="15"/>
-      <c r="Z20" s="15"/>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="26"/>
-    </row>
-    <row r="21" spans="1:28" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="15"/>
-      <c r="Y21" s="15"/>
-      <c r="Z21" s="15"/>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="26"/>
-    </row>
-    <row r="22" spans="1:28" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="26"/>
-    </row>
-    <row r="23" spans="1:28" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="15"/>
-      <c r="Z23" s="15"/>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="26"/>
-    </row>
-    <row r="24" spans="1:28" s="25" customFormat="1">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="15"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="15"/>
-      <c r="X24" s="22"/>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="15"/>
-      <c r="AA24" s="17"/>
-      <c r="AB24" s="26"/>
-    </row>
-    <row r="25" spans="1:28">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="30"/>
-      <c r="X25" s="37"/>
-      <c r="Y25" s="30"/>
-      <c r="Z25" s="30"/>
-      <c r="AA25" s="32"/>
-    </row>
-    <row r="26" spans="1:28">
+      <c r="AB7" s="25"/>
+    </row>
+    <row r="8" ht="16.5" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="28"/>
+    </row>
+    <row r="9" ht="30" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="28"/>
+    </row>
+    <row r="10" ht="30" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="28"/>
+    </row>
+    <row r="11" ht="30" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="28"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="28"/>
+    </row>
+    <row r="13" ht="30" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="28"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="28"/>
+    </row>
+    <row r="15" ht="30" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="28"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="28"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="28"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="28"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="28"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="28"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="28"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="28"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="28"/>
+    </row>
+    <row r="24" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="28"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="32"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="32"/>
+      <c r="AA25" s="34"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>64</v>
       </c>
@@ -1811,7 +1859,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>64</v>
       </c>
@@ -1819,7 +1867,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>64</v>
       </c>
@@ -1827,7 +1875,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>64</v>
       </c>
@@ -1835,7 +1883,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>64</v>
       </c>
@@ -1843,7 +1891,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>64</v>
       </c>
@@ -1851,7 +1899,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
@@ -1859,7 +1907,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -1867,7 +1915,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>64</v>
       </c>
@@ -1875,7 +1923,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>64</v>
       </c>
@@ -1883,7 +1931,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>64</v>
       </c>
@@ -1903,26 +1951,26 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
   </mergeCells>
-  <pageMargins left="0.2" right="0.19685039370078741" top="0.39370078740157483" bottom="0.27559055118110237" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="65" orientation="landscape" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="1200"/>
+  <pageMargins left="0.2" right="0.1968503937007874" top="0.3937007874015748" bottom="0.2755905511811024" header="0.1968503937007874" footer="0.1968503937007874"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="1200" scale="65" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -1930,17 +1978,17 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -1948,7 +1996,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -1956,7 +2004,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -1964,7 +2012,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -1972,7 +2020,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -1985,398 +2033,647 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA7"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0"/>
   <cols>
     <col min="8" max="8" width="28" customWidth="1"/>
     <col min="15" max="15" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-    </row>
-    <row r="2" spans="1:27">
-      <c r="A2" s="38" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39" t="s">
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="39"/>
-    </row>
-    <row r="3" spans="1:27" ht="60" customHeight="1">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="12" t="s">
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+    </row>
+    <row r="3" ht="60" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="O3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="P3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="R3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="S3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="T3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="U3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="V3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="W3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="X3" s="14" t="s">
+      <c r="X3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="Y3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="Z3" s="12" t="s">
+      <c r="Z3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="AA3" s="12" t="s">
+      <c r="AA3" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="17"/>
-    </row>
-    <row r="5" spans="1:27" ht="30" customHeight="1">
-      <c r="A5" s="15" t="s">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="19"/>
+    </row>
+    <row r="5" ht="30" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="17" t="s">
+      <c r="J5" s="17"/>
+      <c r="K5" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="22">
+      <c r="O5" s="24">
         <v>111111</v>
       </c>
-      <c r="P5" s="22" t="e">
+      <c r="P5" s="24" t="e">
         <f>B11O5</f>
         <v>#NAME?</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="Q5" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="R5" s="24"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15" t="s">
+      <c r="R5" s="26"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AA5" s="15" t="s">
+      <c r="AA5" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="45" customHeight="1">
-      <c r="A6" s="15" t="s">
+    <row r="6" ht="45" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="M6" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="O6" s="18">
+      <c r="O6" s="20">
         <v>222222</v>
       </c>
-      <c r="P6" s="22">
+      <c r="P6" s="24">
         <f t="shared" ref="P6:P7" si="0">O6</f>
         <v>222222</v>
       </c>
-      <c r="Q6" s="15" t="s">
+      <c r="Q6" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="R6" s="24"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15" t="s">
+      <c r="R6" s="26"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AA6" s="15" t="s">
+      <c r="AA6" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="30" customHeight="1">
-      <c r="A7" s="15" t="s">
+    <row r="7" ht="30" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="M7" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="N7" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="18">
+      <c r="O7" s="20">
         <v>333333</v>
       </c>
-      <c r="P7" s="22">
+      <c r="P7" s="24">
         <f t="shared" si="0"/>
         <v>333333</v>
       </c>
-      <c r="Q7" s="15" t="s">
+      <c r="Q7" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="R7" s="24"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15" t="s">
+      <c r="R7" s="26"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AA7" s="15" t="s">
+      <c r="AA7" s="17" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="40">
+        <v>43231.41588940972</v>
+      </c>
+      <c r="I8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O8" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>77</v>
+      </c>
+      <c r="R8" t="s">
+        <v>77</v>
+      </c>
+      <c r="S8" t="s">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="40">
+        <v>43231.417489872685</v>
+      </c>
+      <c r="I9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" t="s">
+        <v>77</v>
+      </c>
+      <c r="M9" t="s">
+        <v>77</v>
+      </c>
+      <c r="N9" t="s">
+        <v>77</v>
+      </c>
+      <c r="O9" t="s">
+        <v>77</v>
+      </c>
+      <c r="P9" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>77</v>
+      </c>
+      <c r="R9" t="s">
+        <v>77</v>
+      </c>
+      <c r="S9" t="s">
+        <v>77</v>
+      </c>
+      <c r="T9" t="s">
+        <v>77</v>
+      </c>
+      <c r="U9" t="s">
+        <v>77</v>
+      </c>
+      <c r="V9" t="s">
+        <v>77</v>
+      </c>
+      <c r="W9" t="s">
+        <v>77</v>
+      </c>
+      <c r="X9" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="40">
+        <v>43231.41776736111</v>
+      </c>
+      <c r="I10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M10" t="s">
+        <v>77</v>
+      </c>
+      <c r="N10" t="s">
+        <v>77</v>
+      </c>
+      <c r="O10" t="s">
+        <v>77</v>
+      </c>
+      <c r="P10" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>77</v>
+      </c>
+      <c r="R10" t="s">
+        <v>77</v>
+      </c>
+      <c r="S10" t="s">
+        <v>77</v>
+      </c>
+      <c r="T10" t="s">
+        <v>77</v>
+      </c>
+      <c r="U10" t="s">
+        <v>77</v>
+      </c>
+      <c r="V10" t="s">
+        <v>77</v>
+      </c>
+      <c r="W10" t="s">
+        <v>77</v>
+      </c>
+      <c r="X10" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
